--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-05-01.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="303">
   <si>
     <t>League</t>
   </si>
@@ -802,6 +802,51 @@
     <t>1.228235414</t>
   </si>
   <si>
+    <t>1.228201462</t>
+  </si>
+  <si>
+    <t>1.228254331</t>
+  </si>
+  <si>
+    <t>1.228208130</t>
+  </si>
+  <si>
+    <t>1.228174408</t>
+  </si>
+  <si>
+    <t>1.228208040</t>
+  </si>
+  <si>
+    <t>1.228207950</t>
+  </si>
+  <si>
+    <t>1.228201282</t>
+  </si>
+  <si>
+    <t>1.228221193</t>
+  </si>
+  <si>
+    <t>1.228254241</t>
+  </si>
+  <si>
+    <t>1.228208220</t>
+  </si>
+  <si>
+    <t>1.228208706</t>
+  </si>
+  <si>
+    <t>1.228208310</t>
+  </si>
+  <si>
+    <t>1.228082192</t>
+  </si>
+  <si>
+    <t>1.228080784</t>
+  </si>
+  <si>
+    <t>1.228208616</t>
+  </si>
+  <si>
     <t>1.227737939</t>
   </si>
   <si>
@@ -830,6 +875,51 @@
   </si>
   <si>
     <t>1.228235339</t>
+  </si>
+  <si>
+    <t>1.228201387</t>
+  </si>
+  <si>
+    <t>1.228254256</t>
+  </si>
+  <si>
+    <t>1.228208055</t>
+  </si>
+  <si>
+    <t>1.228174418</t>
+  </si>
+  <si>
+    <t>1.228207965</t>
+  </si>
+  <si>
+    <t>1.228207875</t>
+  </si>
+  <si>
+    <t>1.228201207</t>
+  </si>
+  <si>
+    <t>1.228221118</t>
+  </si>
+  <si>
+    <t>1.228254166</t>
+  </si>
+  <si>
+    <t>1.228208145</t>
+  </si>
+  <si>
+    <t>1.228208631</t>
+  </si>
+  <si>
+    <t>1.228208235</t>
+  </si>
+  <si>
+    <t>1.228082117</t>
+  </si>
+  <si>
+    <t>1.228080709</t>
+  </si>
+  <si>
+    <t>1.228208541</t>
   </si>
   <si>
     <t>1.227737950</t>
@@ -1410,16 +1500,16 @@
         <v>125</v>
       </c>
       <c r="F2">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G2">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H2">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J2">
         <v>3.5</v>
@@ -1440,58 +1530,58 @@
         <v>2.18</v>
       </c>
       <c r="P2">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Q2">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="S2">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="U2">
         <v>17</v>
       </c>
       <c r="V2">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="W2">
         <v>15.5</v>
       </c>
       <c r="X2">
-        <v>4.1</v>
+        <v>16</v>
       </c>
       <c r="Y2">
         <v>27</v>
       </c>
       <c r="Z2">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AA2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB2">
-        <v>3.55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE2">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF2">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG2">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH2">
         <v>4.2</v>
@@ -1500,67 +1590,67 @@
         <v>44</v>
       </c>
       <c r="AJ2">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK2">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL2">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM2">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN2">
-        <v>4.1</v>
+        <v>14.5</v>
       </c>
       <c r="AO2">
         <v>22</v>
       </c>
       <c r="AP2">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AQ2">
         <v>60</v>
       </c>
       <c r="AR2">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AS2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT2">
-        <v>4.1</v>
+        <v>21</v>
       </c>
       <c r="AU2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AV2">
         <v>4.2</v>
       </c>
       <c r="AW2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX2">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AY2">
         <v>120</v>
       </c>
       <c r="AZ2">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="BA2">
         <v>25</v>
       </c>
       <c r="BB2">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="BC2">
         <v>40</v>
       </c>
       <c r="BD2">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1587,7 +1677,7 @@
         <v>253</v>
       </c>
       <c r="BM2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1607,22 +1697,22 @@
         <v>126</v>
       </c>
       <c r="F3">
+        <v>1.72</v>
+      </c>
+      <c r="G3">
         <v>1.73</v>
       </c>
-      <c r="G3">
-        <v>1.75</v>
-      </c>
       <c r="H3">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I3">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>4.6</v>
       </c>
       <c r="K3">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L3">
         <v>3.35</v>
@@ -1652,7 +1742,7 @@
         <v>32</v>
       </c>
       <c r="U3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V3">
         <v>30</v>
@@ -1664,13 +1754,13 @@
         <v>44</v>
       </c>
       <c r="Y3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z3">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB3">
         <v>16.5</v>
@@ -1685,19 +1775,19 @@
         <v>12.5</v>
       </c>
       <c r="AF3">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG3">
         <v>19.5</v>
       </c>
       <c r="AH3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI3">
         <v>44</v>
       </c>
       <c r="AJ3">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK3">
         <v>16.5</v>
@@ -1721,7 +1811,7 @@
         <v>40</v>
       </c>
       <c r="AR3">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AS3">
         <v>21</v>
@@ -1745,19 +1835,19 @@
         <v>46</v>
       </c>
       <c r="AZ3">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BA3">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BB3">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BC3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="BE3">
         <v>980</v>
@@ -1784,7 +1874,7 @@
         <v>254</v>
       </c>
       <c r="BM3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1813,10 +1903,10 @@
         <v>1.32</v>
       </c>
       <c r="I4">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="K4">
         <v>7.4</v>
@@ -1834,13 +1924,13 @@
         <v>1.82</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
       </c>
       <c r="R4">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="S4">
         <v>2.06</v>
@@ -1852,31 +1942,31 @@
         <v>26</v>
       </c>
       <c r="V4">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="W4">
         <v>11.5</v>
       </c>
       <c r="X4">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y4">
         <v>10.5</v>
       </c>
       <c r="Z4">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA4">
         <v>13.5</v>
       </c>
       <c r="AB4">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AC4">
         <v>42</v>
       </c>
       <c r="AD4">
-        <v>9.4</v>
+        <v>3.45</v>
       </c>
       <c r="AE4">
         <v>15.5</v>
@@ -1888,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="AH4">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="AI4">
         <v>18</v>
@@ -1906,7 +1996,7 @@
         <v>46</v>
       </c>
       <c r="AN4">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO4">
         <v>36</v>
@@ -1924,25 +2014,25 @@
         <v>1000</v>
       </c>
       <c r="AT4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AU4">
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BA4">
         <v>1000</v>
@@ -1951,10 +2041,10 @@
         <v>2.62</v>
       </c>
       <c r="BC4">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BD4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1981,7 +2071,7 @@
         <v>255</v>
       </c>
       <c r="BM4" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2001,7 +2091,7 @@
         <v>128</v>
       </c>
       <c r="F5">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2022,10 +2112,10 @@
         <v>1.69</v>
       </c>
       <c r="M5">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N5">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="O5">
         <v>2.46</v>
@@ -2043,115 +2133,115 @@
         <v>2.08</v>
       </c>
       <c r="T5">
-        <v>4.3</v>
+        <v>1.08</v>
       </c>
       <c r="U5">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="V5">
-        <v>8.4</v>
+        <v>1.08</v>
       </c>
       <c r="W5">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="X5">
-        <v>5.2</v>
+        <v>1.09</v>
       </c>
       <c r="Y5">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="AA5">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>4.2</v>
+        <v>1.08</v>
       </c>
       <c r="AC5">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD5">
-        <v>6.2</v>
+        <v>1.08</v>
       </c>
       <c r="AE5">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AF5">
-        <v>11.5</v>
+        <v>1.08</v>
       </c>
       <c r="AG5">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH5">
-        <v>6</v>
+        <v>1.09</v>
       </c>
       <c r="AI5">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>5.2</v>
+        <v>1.05</v>
       </c>
       <c r="AK5">
         <v>19.5</v>
       </c>
       <c r="AL5">
-        <v>4.7</v>
+        <v>1.08</v>
       </c>
       <c r="AM5">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>5.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO5">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>6.4</v>
+        <v>1.09</v>
       </c>
       <c r="AQ5">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS5">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>6</v>
+        <v>1.09</v>
       </c>
       <c r="AU5">
+        <v>1000</v>
+      </c>
+      <c r="AV5">
+        <v>1.09</v>
+      </c>
+      <c r="AW5">
+        <v>1000</v>
+      </c>
+      <c r="AX5">
+        <v>1.09</v>
+      </c>
+      <c r="AY5">
+        <v>1000</v>
+      </c>
+      <c r="AZ5">
+        <v>1.09</v>
+      </c>
+      <c r="BA5">
+        <v>1000</v>
+      </c>
+      <c r="BB5">
+        <v>1.06</v>
+      </c>
+      <c r="BC5">
         <v>40</v>
       </c>
-      <c r="AV5">
-        <v>6.2</v>
-      </c>
-      <c r="AW5">
-        <v>60</v>
-      </c>
-      <c r="AX5">
-        <v>6.6</v>
-      </c>
-      <c r="AY5">
-        <v>150</v>
-      </c>
-      <c r="AZ5">
-        <v>6</v>
-      </c>
-      <c r="BA5">
-        <v>40</v>
-      </c>
-      <c r="BB5">
-        <v>6</v>
-      </c>
-      <c r="BC5">
-        <v>42</v>
-      </c>
       <c r="BD5">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2178,7 +2268,7 @@
         <v>256</v>
       </c>
       <c r="BM5" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2198,31 +2288,31 @@
         <v>129</v>
       </c>
       <c r="F6">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="G6">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H6">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="I6">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J6">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K6">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
         <v>1.71</v>
       </c>
       <c r="M6">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="N6">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O6">
         <v>2.42</v>
@@ -2234,7 +2324,7 @@
         <v>2.1</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S6">
         <v>2.24</v>
@@ -2246,19 +2336,19 @@
         <v>13.5</v>
       </c>
       <c r="V6">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="W6">
         <v>12.5</v>
       </c>
       <c r="X6">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y6">
         <v>21</v>
       </c>
       <c r="Z6">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -2273,16 +2363,16 @@
         <v>6.2</v>
       </c>
       <c r="AE6">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF6">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG6">
         <v>15.5</v>
       </c>
       <c r="AH6">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AI6">
         <v>40</v>
@@ -2300,55 +2390,55 @@
         <v>16.5</v>
       </c>
       <c r="AN6">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO6">
         <v>24</v>
       </c>
       <c r="AP6">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AQ6">
         <v>65</v>
       </c>
       <c r="AR6">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AS6">
         <v>60</v>
       </c>
       <c r="AT6">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AU6">
         <v>44</v>
       </c>
       <c r="AV6">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AW6">
         <v>65</v>
       </c>
       <c r="AX6">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AY6">
         <v>150</v>
       </c>
       <c r="AZ6">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="BA6">
         <v>42</v>
       </c>
       <c r="BB6">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="BC6">
         <v>38</v>
       </c>
       <c r="BD6">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2375,7 +2465,7 @@
         <v>257</v>
       </c>
       <c r="BM6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2398,13 +2488,13 @@
         <v>2.98</v>
       </c>
       <c r="G7">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I7">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J7">
         <v>2.96</v>
@@ -2413,16 +2503,16 @@
         <v>3.55</v>
       </c>
       <c r="L7">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M7">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N7">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="O7">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="P7">
         <v>1.94</v>
@@ -2443,19 +2533,19 @@
         <v>11</v>
       </c>
       <c r="V7">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="W7">
         <v>10.5</v>
       </c>
       <c r="X7">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y7">
         <v>18.5</v>
       </c>
       <c r="Z7">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AA7">
         <v>48</v>
@@ -2470,16 +2560,16 @@
         <v>6.4</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF7">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG7">
         <v>15.5</v>
       </c>
       <c r="AH7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AI7">
         <v>42</v>
@@ -2491,61 +2581,61 @@
         <v>26</v>
       </c>
       <c r="AL7">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM7">
         <v>18</v>
       </c>
       <c r="AN7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AO7">
         <v>27</v>
       </c>
       <c r="AP7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AQ7">
         <v>75</v>
       </c>
       <c r="AR7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AS7">
         <v>75</v>
       </c>
       <c r="AT7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AU7">
         <v>60</v>
       </c>
       <c r="AV7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AW7">
         <v>85</v>
       </c>
       <c r="AX7">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AY7">
         <v>200</v>
       </c>
       <c r="AZ7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BA7">
         <v>70</v>
       </c>
       <c r="BB7">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="BC7">
         <v>42</v>
       </c>
       <c r="BD7">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2572,7 +2662,7 @@
         <v>258</v>
       </c>
       <c r="BM7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2592,13 +2682,13 @@
         <v>131</v>
       </c>
       <c r="F8">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="G8">
         <v>980</v>
       </c>
       <c r="H8">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I8">
         <v>1.28</v>
@@ -2607,19 +2697,19 @@
         <v>5.7</v>
       </c>
       <c r="K8">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="L8">
         <v>2.18</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="N8">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="O8">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="P8">
         <v>1.67</v>
@@ -2634,115 +2724,115 @@
         <v>2.5</v>
       </c>
       <c r="T8">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="W8">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="X8">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z8">
-        <v>4.3</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>10.5</v>
       </c>
       <c r="AB8">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="AC8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD8">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="AE8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="AG8">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH8">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AI8">
         <v>15</v>
       </c>
       <c r="AJ8">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="AK8">
         <v>1000</v>
       </c>
       <c r="AL8">
-        <v>3.75</v>
+        <v>2.98</v>
       </c>
       <c r="AM8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN8">
-        <v>5.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP8">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AQ8">
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>3.95</v>
+        <v>1.05</v>
       </c>
       <c r="AS8">
         <v>1000</v>
       </c>
       <c r="AT8">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="AU8">
         <v>1000</v>
       </c>
       <c r="AV8">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW8">
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="BA8">
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="BC8">
         <v>4.2</v>
       </c>
       <c r="BD8">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2769,7 +2859,7 @@
         <v>259</v>
       </c>
       <c r="BM8" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2789,16 +2879,16 @@
         <v>132</v>
       </c>
       <c r="F9">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G9">
         <v>1.92</v>
       </c>
       <c r="H9">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J9">
         <v>3.55</v>
@@ -2807,19 +2897,19 @@
         <v>4.1</v>
       </c>
       <c r="L9">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="M9">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="N9">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="O9">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="P9">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2828,55 +2918,55 @@
         <v>2</v>
       </c>
       <c r="S9">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T9">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U9">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V9">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W9">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="X9">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="Y9">
         <v>40</v>
       </c>
       <c r="Z9">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AA9">
         <v>120</v>
       </c>
       <c r="AB9">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC9">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>7.6</v>
       </c>
       <c r="AE9">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF9">
         <v>15.5</v>
       </c>
       <c r="AG9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH9">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AI9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ9">
         <v>9.199999999999999</v>
@@ -2897,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="AP9">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AQ9">
         <v>75</v>
@@ -2906,40 +2996,40 @@
         <v>16.5</v>
       </c>
       <c r="AS9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT9">
         <v>16</v>
       </c>
       <c r="AU9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV9">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AW9">
         <v>40</v>
       </c>
       <c r="AX9">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AY9">
         <v>120</v>
       </c>
       <c r="AZ9">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="BA9">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BB9">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="BC9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BD9">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2966,7 +3056,7 @@
         <v>260</v>
       </c>
       <c r="BM9" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2986,10 +3076,10 @@
         <v>133</v>
       </c>
       <c r="F10">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G10">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H10">
         <v>5.2</v>
@@ -3007,7 +3097,7 @@
         <v>2.18</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N10">
         <v>1.67</v>
@@ -3016,43 +3106,43 @@
         <v>1.85</v>
       </c>
       <c r="P10">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Q10">
         <v>1.85</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="S10">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U10">
         <v>22</v>
       </c>
       <c r="V10">
-        <v>4.1</v>
+        <v>20</v>
       </c>
       <c r="W10">
         <v>28</v>
       </c>
       <c r="X10">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Y10">
         <v>60</v>
       </c>
       <c r="Z10">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AA10">
         <v>160</v>
       </c>
       <c r="AB10">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC10">
         <v>13.5</v>
@@ -3061,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="AE10">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AF10">
         <v>18.5</v>
@@ -3070,13 +3160,13 @@
         <v>27</v>
       </c>
       <c r="AH10">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AI10">
         <v>80</v>
       </c>
       <c r="AJ10">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK10">
         <v>14</v>
@@ -3094,49 +3184,49 @@
         <v>22</v>
       </c>
       <c r="AP10">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AQ10">
         <v>80</v>
       </c>
       <c r="AR10">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AS10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU10">
         <v>21</v>
       </c>
       <c r="AV10">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AW10">
         <v>38</v>
       </c>
       <c r="AX10">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AY10">
         <v>100</v>
       </c>
       <c r="AZ10">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BA10">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB10">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="BC10">
         <v>75</v>
       </c>
       <c r="BD10">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3163,7 +3253,7 @@
         <v>261</v>
       </c>
       <c r="BM10" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3183,160 +3273,160 @@
         <v>134</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="G11">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K11">
+        <v>10.5</v>
+      </c>
+      <c r="L11">
+        <v>2.82</v>
+      </c>
+      <c r="M11">
+        <v>3.3</v>
+      </c>
+      <c r="N11">
+        <v>1.44</v>
+      </c>
+      <c r="O11">
+        <v>1.55</v>
+      </c>
+      <c r="P11">
+        <v>2.44</v>
+      </c>
+      <c r="Q11">
+        <v>2.72</v>
+      </c>
+      <c r="R11">
+        <v>1.58</v>
+      </c>
+      <c r="S11">
+        <v>1.7</v>
+      </c>
+      <c r="T11">
         <v>7</v>
       </c>
-      <c r="K11">
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="V11">
+        <v>7.4</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>330</v>
+      </c>
+      <c r="Z11">
         <v>8.199999999999999</v>
       </c>
-      <c r="L11">
-        <v>2.68</v>
-      </c>
-      <c r="M11">
-        <v>3.15</v>
-      </c>
-      <c r="N11">
-        <v>1.47</v>
-      </c>
-      <c r="O11">
-        <v>1.6</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF11" t="s">
         <v>166</v>
@@ -3356,11 +3446,11 @@
       <c r="BK11" t="s">
         <v>230</v>
       </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
+      <c r="BL11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3380,34 +3470,34 @@
         <v>135</v>
       </c>
       <c r="F12">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G12">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H12">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I12">
         <v>980</v>
       </c>
       <c r="J12">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="K12">
         <v>980</v>
       </c>
       <c r="L12">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N12">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="O12">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3577,160 +3667,160 @@
         <v>136</v>
       </c>
       <c r="F13">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="G13">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="H13">
         <v>2.18</v>
       </c>
       <c r="I13">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="K13">
+        <v>3.95</v>
+      </c>
+      <c r="L13">
+        <v>1.5</v>
+      </c>
+      <c r="M13">
+        <v>1.86</v>
+      </c>
+      <c r="N13">
+        <v>2.16</v>
+      </c>
+      <c r="O13">
+        <v>2.98</v>
+      </c>
+      <c r="P13">
+        <v>1.12</v>
+      </c>
+      <c r="Q13">
+        <v>110</v>
+      </c>
+      <c r="R13">
+        <v>1.12</v>
+      </c>
+      <c r="S13">
+        <v>9.4</v>
+      </c>
+      <c r="T13">
+        <v>3.2</v>
+      </c>
+      <c r="U13">
         <v>980</v>
       </c>
-      <c r="L13">
-        <v>1.51</v>
-      </c>
-      <c r="M13">
-        <v>1.88</v>
-      </c>
-      <c r="N13">
-        <v>2.12</v>
-      </c>
-      <c r="O13">
-        <v>18</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
         <v>168</v>
@@ -3750,11 +3840,11 @@
       <c r="BK13" t="s">
         <v>232</v>
       </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+      <c r="BL13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3777,22 +3867,22 @@
         <v>1.58</v>
       </c>
       <c r="G14">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H14">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I14">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J14">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K14">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L14">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="M14">
         <v>1.92</v>
@@ -3801,133 +3891,133 @@
         <v>2.08</v>
       </c>
       <c r="O14">
+        <v>2.32</v>
+      </c>
+      <c r="P14">
+        <v>2.18</v>
+      </c>
+      <c r="Q14">
         <v>2.36</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF14" t="s">
         <v>169</v>
@@ -3947,11 +4037,11 @@
       <c r="BK14" t="s">
         <v>233</v>
       </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
+      <c r="BL14" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3971,16 +4061,16 @@
         <v>138</v>
       </c>
       <c r="F15">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G15">
         <v>3.65</v>
       </c>
       <c r="H15">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I15">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J15">
         <v>3.55</v>
@@ -3989,142 +4079,142 @@
         <v>4.1</v>
       </c>
       <c r="L15">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M15">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="N15">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="O15">
         <v>1.91</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="BF15" t="s">
         <v>170</v>
@@ -4144,11 +4234,11 @@
       <c r="BK15" t="s">
         <v>234</v>
       </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
+      <c r="BL15" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4177,151 +4267,151 @@
         <v>3.2</v>
       </c>
       <c r="I16">
+        <v>3.7</v>
+      </c>
+      <c r="J16">
+        <v>3.5</v>
+      </c>
+      <c r="K16">
+        <v>3.85</v>
+      </c>
+      <c r="L16">
+        <v>1.94</v>
+      </c>
+      <c r="M16">
+        <v>2.16</v>
+      </c>
+      <c r="N16">
+        <v>1.86</v>
+      </c>
+      <c r="O16">
+        <v>2.08</v>
+      </c>
+      <c r="P16">
+        <v>1.74</v>
+      </c>
+      <c r="Q16">
+        <v>1.85</v>
+      </c>
+      <c r="R16">
+        <v>2.18</v>
+      </c>
+      <c r="S16">
+        <v>2.34</v>
+      </c>
+      <c r="T16">
+        <v>12.5</v>
+      </c>
+      <c r="U16">
+        <v>18</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>17</v>
+      </c>
+      <c r="X16">
+        <v>4.3</v>
+      </c>
+      <c r="Y16">
+        <v>29</v>
+      </c>
+      <c r="Z16">
+        <v>4.3</v>
+      </c>
+      <c r="AA16">
+        <v>70</v>
+      </c>
+      <c r="AB16">
+        <v>9.6</v>
+      </c>
+      <c r="AC16">
+        <v>13.5</v>
+      </c>
+      <c r="AD16">
+        <v>6.8</v>
+      </c>
+      <c r="AE16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF16">
+        <v>11</v>
+      </c>
+      <c r="AG16">
+        <v>17.5</v>
+      </c>
+      <c r="AH16">
+        <v>4.2</v>
+      </c>
+      <c r="AI16">
+        <v>46</v>
+      </c>
+      <c r="AJ16">
+        <v>13</v>
+      </c>
+      <c r="AK16">
+        <v>18.5</v>
+      </c>
+      <c r="AL16">
+        <v>9.6</v>
+      </c>
+      <c r="AM16">
+        <v>14</v>
+      </c>
+      <c r="AN16">
+        <v>13</v>
+      </c>
+      <c r="AO16">
+        <v>22</v>
+      </c>
+      <c r="AP16">
+        <v>4.3</v>
+      </c>
+      <c r="AQ16">
+        <v>60</v>
+      </c>
+      <c r="AR16">
         <v>4.1</v>
       </c>
-      <c r="J16">
-        <v>3.25</v>
-      </c>
-      <c r="K16">
-        <v>3.9</v>
-      </c>
-      <c r="L16">
-        <v>1.96</v>
-      </c>
-      <c r="M16">
-        <v>2.2</v>
-      </c>
-      <c r="N16">
-        <v>1.84</v>
-      </c>
-      <c r="O16">
-        <v>2.04</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
       <c r="AS16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF16" t="s">
         <v>171</v>
@@ -4341,11 +4431,11 @@
       <c r="BK16" t="s">
         <v>235</v>
       </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
+      <c r="BL16" t="s">
+        <v>266</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4365,28 +4455,28 @@
         <v>140</v>
       </c>
       <c r="F17">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G17">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H17">
         <v>3.35</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J17">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L17">
         <v>1.48</v>
       </c>
       <c r="M17">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N17">
         <v>2.66</v>
@@ -4395,130 +4485,130 @@
         <v>3.1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF17" t="s">
         <v>172</v>
@@ -4538,11 +4628,11 @@
       <c r="BK17" t="s">
         <v>236</v>
       </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
+      <c r="BL17" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4565,7 +4655,7 @@
         <v>2.24</v>
       </c>
       <c r="G18">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H18">
         <v>3.7</v>
@@ -4580,142 +4670,142 @@
         <v>3.4</v>
       </c>
       <c r="L18">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M18">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N18">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="O18">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF18" t="s">
         <v>173</v>
@@ -4735,11 +4825,11 @@
       <c r="BK18" t="s">
         <v>237</v>
       </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
+      <c r="BL18" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4759,28 +4849,28 @@
         <v>142</v>
       </c>
       <c r="F19">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="G19">
-        <v>980</v>
+        <v>2.58</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I19">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="J19">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="K19">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L19">
         <v>1.98</v>
       </c>
       <c r="M19">
-        <v>990</v>
+        <v>2.34</v>
       </c>
       <c r="N19">
         <v>1.74</v>
@@ -4789,130 +4879,130 @@
         <v>2.02</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF19" t="s">
         <v>174</v>
@@ -4932,11 +5022,11 @@
       <c r="BK19" t="s">
         <v>238</v>
       </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
+      <c r="BL19" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4959,19 +5049,19 @@
         <v>1.56</v>
       </c>
       <c r="G20">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H20">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="J20">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="K20">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L20">
         <v>1.72</v>
@@ -4983,133 +5073,133 @@
         <v>2</v>
       </c>
       <c r="O20">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF20" t="s">
         <v>175</v>
@@ -5129,11 +5219,11 @@
       <c r="BK20" t="s">
         <v>239</v>
       </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
+      <c r="BL20" t="s">
+        <v>270</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5159,154 +5249,154 @@
         <v>3.3</v>
       </c>
       <c r="H21">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I21">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J21">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="K21">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="L21">
         <v>1.53</v>
       </c>
       <c r="M21">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="N21">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
         <v>2.9</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
         <v>176</v>
@@ -5326,11 +5416,11 @@
       <c r="BK21" t="s">
         <v>240</v>
       </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+      <c r="BL21" t="s">
+        <v>271</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5350,160 +5440,160 @@
         <v>145</v>
       </c>
       <c r="F22">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G22">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H22">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="I22">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="J22">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K22">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L22">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M22">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N22">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O22">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
         <v>177</v>
@@ -5523,11 +5613,11 @@
       <c r="BK22" t="s">
         <v>241</v>
       </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
+      <c r="BL22" t="s">
+        <v>272</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5550,157 +5640,157 @@
         <v>2.64</v>
       </c>
       <c r="G23">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="I23">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K23">
         <v>3.75</v>
       </c>
       <c r="L23">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M23">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="N23">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O23">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23" t="s">
         <v>178</v>
@@ -5720,11 +5810,11 @@
       <c r="BK23" t="s">
         <v>242</v>
       </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
+      <c r="BL23" t="s">
+        <v>273</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5744,160 +5834,160 @@
         <v>147</v>
       </c>
       <c r="F24">
-        <v>2.14</v>
+        <v>5.2</v>
       </c>
       <c r="G24">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="H24">
         <v>1.6</v>
       </c>
       <c r="I24">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="J24">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L24">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="M24">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="O24">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24" t="s">
         <v>179</v>
@@ -5917,11 +6007,11 @@
       <c r="BK24" t="s">
         <v>243</v>
       </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
+      <c r="BL24" t="s">
+        <v>274</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5941,160 +6031,160 @@
         <v>148</v>
       </c>
       <c r="F25">
-        <v>1.28</v>
+        <v>5.9</v>
       </c>
       <c r="G25">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="H25">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I25">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="J25">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="K25">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L25">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="M25">
         <v>2.08</v>
       </c>
       <c r="N25">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O25">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF25" t="s">
         <v>180</v>
@@ -6114,11 +6204,11 @@
       <c r="BK25" t="s">
         <v>244</v>
       </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
+      <c r="BL25" t="s">
+        <v>275</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6138,160 +6228,160 @@
         <v>149</v>
       </c>
       <c r="F26">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H26">
         <v>1.82</v>
       </c>
       <c r="I26">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J26">
         <v>3.7</v>
       </c>
       <c r="K26">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L26">
         <v>1.92</v>
       </c>
       <c r="M26">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O26">
         <v>2.08</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26" t="s">
         <v>181</v>
@@ -6311,11 +6401,11 @@
       <c r="BK26" t="s">
         <v>245</v>
       </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
+      <c r="BL26" t="s">
+        <v>276</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6344,10 +6434,10 @@
         <v>2.04</v>
       </c>
       <c r="I27">
-        <v>2.7</v>
+        <v>980</v>
       </c>
       <c r="J27">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K27">
         <v>950</v>
@@ -6741,13 +6831,13 @@
         <v>3.5</v>
       </c>
       <c r="J29">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="K29">
         <v>5.1</v>
       </c>
       <c r="L29">
-        <v>2.36</v>
+        <v>1.34</v>
       </c>
       <c r="M29">
         <v>2.82</v>
@@ -6756,7 +6846,7 @@
         <v>1.55</v>
       </c>
       <c r="O29">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -6926,34 +7016,34 @@
         <v>153</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G30">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H30">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I30">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>2.54</v>
+        <v>3.8</v>
       </c>
       <c r="K30">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L30">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="M30">
-        <v>980</v>
+        <v>2.7</v>
       </c>
       <c r="N30">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="O30">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -7126,31 +7216,31 @@
         <v>1.6</v>
       </c>
       <c r="G31">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H31">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J31">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K31">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L31">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="O31">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -7320,16 +7410,16 @@
         <v>155</v>
       </c>
       <c r="F32">
+        <v>2.88</v>
+      </c>
+      <c r="G32">
         <v>2.9</v>
       </c>
-      <c r="G32">
-        <v>2.92</v>
-      </c>
       <c r="H32">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I32">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J32">
         <v>3.8</v>
@@ -7338,19 +7428,19 @@
         <v>3.85</v>
       </c>
       <c r="L32">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="M32">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N32">
         <v>1.56</v>
       </c>
       <c r="O32">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="P32">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q32">
         <v>1.53</v>
@@ -7371,7 +7461,7 @@
         <v>15.5</v>
       </c>
       <c r="W32">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X32">
         <v>17.5</v>
@@ -7380,7 +7470,7 @@
         <v>21</v>
       </c>
       <c r="Z32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA32">
         <v>42</v>
@@ -7401,7 +7491,7 @@
         <v>11.5</v>
       </c>
       <c r="AG32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH32">
         <v>19.5</v>
@@ -7458,7 +7548,7 @@
         <v>55</v>
       </c>
       <c r="AZ32">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA32">
         <v>15</v>
@@ -7470,7 +7560,7 @@
         <v>12</v>
       </c>
       <c r="BD32">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BE32">
         <v>310</v>
@@ -7494,10 +7584,10 @@
         <v>251</v>
       </c>
       <c r="BL32" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="BM32" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7517,34 +7607,34 @@
         <v>156</v>
       </c>
       <c r="F33">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="G33">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="H33">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="I33">
+        <v>14.5</v>
+      </c>
+      <c r="J33">
+        <v>3.4</v>
+      </c>
+      <c r="K33">
+        <v>8.4</v>
+      </c>
+      <c r="L33">
+        <v>1.2</v>
+      </c>
+      <c r="M33">
         <v>990</v>
       </c>
-      <c r="J33">
-        <v>1.08</v>
-      </c>
-      <c r="K33">
-        <v>940</v>
-      </c>
-      <c r="L33">
-        <v>1.58</v>
-      </c>
-      <c r="M33">
-        <v>2.78</v>
-      </c>
       <c r="N33">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="O33">
-        <v>2.72</v>
+        <v>6.4</v>
       </c>
       <c r="P33">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-05-01.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="322">
   <si>
     <t>League</t>
   </si>
@@ -316,6 +316,9 @@
     <t>Chernomorets Odesa</t>
   </si>
   <si>
+    <t>Daegu FC</t>
+  </si>
+  <si>
     <t>US Cremonese</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>Shakhtar</t>
   </si>
   <si>
+    <t>Ulsan Hyundai Horang-i</t>
+  </si>
+  <si>
     <t>Pisa</t>
   </si>
   <si>
@@ -508,6 +514,9 @@
     <t>33228982</t>
   </si>
   <si>
+    <t>33234027</t>
+  </si>
+  <si>
     <t>33227143</t>
   </si>
   <si>
@@ -604,6 +613,9 @@
     <t>1.228218216</t>
   </si>
   <si>
+    <t>1.228305522</t>
+  </si>
+  <si>
     <t>1.228174301</t>
   </si>
   <si>
@@ -700,6 +712,9 @@
     <t>1.228218261</t>
   </si>
   <si>
+    <t>1.228305567</t>
+  </si>
+  <si>
     <t>1.228174311</t>
   </si>
   <si>
@@ -796,6 +811,9 @@
     <t>1.228218300</t>
   </si>
   <si>
+    <t>1.228305606</t>
+  </si>
+  <si>
     <t>1.228174300</t>
   </si>
   <si>
@@ -805,6 +823,9 @@
     <t>1.228201462</t>
   </si>
   <si>
+    <t>1.228218210</t>
+  </si>
+  <si>
     <t>1.228254331</t>
   </si>
   <si>
@@ -847,6 +868,21 @@
     <t>1.228208616</t>
   </si>
   <si>
+    <t>1.228254421</t>
+  </si>
+  <si>
+    <t>1.228190196</t>
+  </si>
+  <si>
+    <t>1.228221103</t>
+  </si>
+  <si>
+    <t>1.228243275</t>
+  </si>
+  <si>
+    <t>1.228236489</t>
+  </si>
+  <si>
     <t>1.227737939</t>
   </si>
   <si>
@@ -871,6 +907,9 @@
     <t>1.228218225</t>
   </si>
   <si>
+    <t>1.228305531</t>
+  </si>
+  <si>
     <t>1.228174310</t>
   </si>
   <si>
@@ -880,6 +919,9 @@
     <t>1.228201387</t>
   </si>
   <si>
+    <t>1.228218135</t>
+  </si>
+  <si>
     <t>1.228254256</t>
   </si>
   <si>
@@ -920,6 +962,21 @@
   </si>
   <si>
     <t>1.228208541</t>
+  </si>
+  <si>
+    <t>1.228254346</t>
+  </si>
+  <si>
+    <t>1.228190121</t>
+  </si>
+  <si>
+    <t>1.228221028</t>
+  </si>
+  <si>
+    <t>1.228243200</t>
+  </si>
+  <si>
+    <t>1.228236414</t>
   </si>
   <si>
     <t>1.227737950</t>
@@ -1280,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM33"/>
+  <dimension ref="A1:BM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1554,7 @@
         <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>2.36</v>
@@ -1530,16 +1587,16 @@
         <v>2.18</v>
       </c>
       <c r="P2">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q2">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R2">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S2">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T2">
         <v>11.5</v>
@@ -1554,13 +1611,13 @@
         <v>15.5</v>
       </c>
       <c r="X2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y2">
         <v>27</v>
       </c>
       <c r="Z2">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AA2">
         <v>70</v>
@@ -1569,13 +1626,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2">
         <v>6.8</v>
       </c>
       <c r="AE2">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF2">
         <v>11.5</v>
@@ -1584,13 +1641,13 @@
         <v>17</v>
       </c>
       <c r="AH2">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AI2">
         <v>44</v>
       </c>
       <c r="AJ2">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK2">
         <v>19</v>
@@ -1608,7 +1665,7 @@
         <v>22</v>
       </c>
       <c r="AP2">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AQ2">
         <v>60</v>
@@ -1626,37 +1683,37 @@
         <v>32</v>
       </c>
       <c r="AV2">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AW2">
         <v>50</v>
       </c>
       <c r="AX2">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AY2">
         <v>120</v>
       </c>
       <c r="AZ2">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="BA2">
         <v>25</v>
       </c>
       <c r="BB2">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BC2">
         <v>40</v>
       </c>
       <c r="BD2">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BG2">
         <v>2899297</v>
@@ -1668,16 +1725,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BK2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BL2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="BM2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1694,10 +1751,10 @@
         <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G3">
         <v>1.73</v>
@@ -1706,7 +1763,7 @@
         <v>4.8</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J3">
         <v>4.6</v>
@@ -1757,10 +1814,10 @@
         <v>50</v>
       </c>
       <c r="Z3">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB3">
         <v>16.5</v>
@@ -1778,13 +1835,13 @@
         <v>19</v>
       </c>
       <c r="AG3">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH3">
         <v>40</v>
       </c>
       <c r="AI3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ3">
         <v>14.5</v>
@@ -1796,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="AM3">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN3">
         <v>14.5</v>
@@ -1811,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="AR3">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AS3">
         <v>21</v>
@@ -1835,16 +1892,16 @@
         <v>46</v>
       </c>
       <c r="AZ3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="BA3">
         <v>5.3</v>
       </c>
       <c r="BB3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD3">
         <v>32</v>
@@ -1853,7 +1910,7 @@
         <v>980</v>
       </c>
       <c r="BF3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BG3">
         <v>1205126</v>
@@ -1865,16 +1922,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BK3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BL3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="BM3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1891,148 +1948,148 @@
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G4">
         <v>13.5</v>
       </c>
       <c r="H4">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="I4">
         <v>1.43</v>
       </c>
       <c r="J4">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="M4">
         <v>2.64</v>
       </c>
       <c r="N4">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P4">
         <v>1.95</v>
       </c>
       <c r="Q4">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R4">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S4">
         <v>2.06</v>
       </c>
       <c r="T4">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U4">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="V4">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="W4">
         <v>11.5</v>
       </c>
       <c r="X4">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y4">
         <v>10.5</v>
       </c>
       <c r="Z4">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA4">
         <v>13.5</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AC4">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="AE4">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG4">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="AI4">
         <v>18</v>
       </c>
       <c r="AJ4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AK4">
         <v>120</v>
       </c>
       <c r="AL4">
+        <v>4.1</v>
+      </c>
+      <c r="AM4">
+        <v>980</v>
+      </c>
+      <c r="AN4">
         <v>4</v>
       </c>
-      <c r="AM4">
-        <v>46</v>
-      </c>
-      <c r="AN4">
-        <v>3.9</v>
-      </c>
       <c r="AO4">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ4">
         <v>46</v>
       </c>
       <c r="AR4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AS4">
         <v>1000</v>
       </c>
       <c r="AT4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AU4">
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA4">
         <v>1000</v>
@@ -2041,16 +2098,16 @@
         <v>2.62</v>
       </c>
       <c r="BC4">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="BD4">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BG4">
         <v>9909548</v>
@@ -2062,16 +2119,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BK4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BL4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="BM4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2088,7 +2145,7 @@
         <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>2.74</v>
@@ -2097,157 +2154,157 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I5">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5">
         <v>3.45</v>
       </c>
       <c r="L5">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M5">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N5">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O5">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="P5">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q5">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R5">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
         <v>2.08</v>
       </c>
       <c r="T5">
-        <v>1.08</v>
+        <v>9.4</v>
       </c>
       <c r="U5">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="V5">
-        <v>1.08</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W5">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="X5">
-        <v>1.09</v>
+        <v>15.5</v>
       </c>
       <c r="Y5">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z5">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="AA5">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB5">
-        <v>1.08</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD5">
-        <v>1.08</v>
+        <v>6.6</v>
       </c>
       <c r="AE5">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF5">
-        <v>1.08</v>
+        <v>11.5</v>
       </c>
       <c r="AG5">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH5">
-        <v>1.09</v>
+        <v>5.9</v>
       </c>
       <c r="AI5">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ5">
-        <v>1.05</v>
+        <v>14.5</v>
       </c>
       <c r="AK5">
         <v>19.5</v>
       </c>
       <c r="AL5">
-        <v>1.08</v>
+        <v>11.5</v>
       </c>
       <c r="AM5">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN5">
-        <v>1.08</v>
+        <v>16</v>
       </c>
       <c r="AO5">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AP5">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="AQ5">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AR5">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="AS5">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AT5">
-        <v>1.09</v>
+        <v>5.9</v>
       </c>
       <c r="AU5">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AV5">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="AW5">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX5">
-        <v>1.09</v>
+        <v>6.6</v>
       </c>
       <c r="AY5">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ5">
-        <v>1.09</v>
+        <v>5.9</v>
       </c>
       <c r="BA5">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="BB5">
-        <v>1.06</v>
+        <v>5.9</v>
       </c>
       <c r="BC5">
         <v>40</v>
       </c>
       <c r="BD5">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="BE5">
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BG5">
         <v>5342583</v>
@@ -2259,16 +2316,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BK5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BL5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="BM5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2285,58 +2342,58 @@
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H6">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L6">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M6">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="O6">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q6">
+        <v>2.06</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>2.1</v>
       </c>
-      <c r="R6">
-        <v>1.91</v>
-      </c>
-      <c r="S6">
-        <v>2.24</v>
-      </c>
       <c r="T6">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>13.5</v>
       </c>
       <c r="V6">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W6">
         <v>12.5</v>
@@ -2351,16 +2408,16 @@
         <v>4.2</v>
       </c>
       <c r="AA6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB6">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC6">
         <v>13</v>
       </c>
       <c r="AD6">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE6">
         <v>9.199999999999999</v>
@@ -2372,10 +2429,10 @@
         <v>15.5</v>
       </c>
       <c r="AH6">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AI6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ6">
         <v>15</v>
@@ -2390,19 +2447,19 @@
         <v>16.5</v>
       </c>
       <c r="AN6">
+        <v>3.85</v>
+      </c>
+      <c r="AO6">
+        <v>980</v>
+      </c>
+      <c r="AP6">
         <v>4</v>
-      </c>
-      <c r="AO6">
-        <v>24</v>
-      </c>
-      <c r="AP6">
-        <v>4.1</v>
       </c>
       <c r="AQ6">
         <v>65</v>
       </c>
       <c r="AR6">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AS6">
         <v>60</v>
@@ -2411,40 +2468,40 @@
         <v>4.1</v>
       </c>
       <c r="AU6">
+        <v>46</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>70</v>
+      </c>
+      <c r="AX6">
+        <v>4.1</v>
+      </c>
+      <c r="AY6">
+        <v>160</v>
+      </c>
+      <c r="AZ6">
+        <v>3.8</v>
+      </c>
+      <c r="BA6">
         <v>44</v>
       </c>
-      <c r="AV6">
-        <v>4.1</v>
-      </c>
-      <c r="AW6">
-        <v>65</v>
-      </c>
-      <c r="AX6">
-        <v>4.2</v>
-      </c>
-      <c r="AY6">
-        <v>150</v>
-      </c>
-      <c r="AZ6">
-        <v>3.9</v>
-      </c>
-      <c r="BA6">
-        <v>42</v>
-      </c>
       <c r="BB6">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="BC6">
         <v>38</v>
       </c>
       <c r="BD6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BG6">
         <v>5348609</v>
@@ -2456,16 +2513,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BK6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BL6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="BM6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2482,7 +2539,7 @@
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>2.98</v>
@@ -2491,28 +2548,28 @@
         <v>3.6</v>
       </c>
       <c r="H7">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I7">
         <v>2.82</v>
       </c>
       <c r="J7">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>3.55</v>
       </c>
       <c r="L7">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M7">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="N7">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O7">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="P7">
         <v>1.94</v>
@@ -2590,7 +2647,7 @@
         <v>4.1</v>
       </c>
       <c r="AO7">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AP7">
         <v>4.1</v>
@@ -2641,7 +2698,7 @@
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BG7">
         <v>5348606</v>
@@ -2653,16 +2710,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BK7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="BL7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="BM7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2679,7 +2736,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8">
         <v>7.2</v>
@@ -2772,13 +2829,13 @@
         <v>15</v>
       </c>
       <c r="AJ8">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="AK8">
         <v>1000</v>
       </c>
       <c r="AL8">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="AM8">
         <v>980</v>
@@ -2796,7 +2853,7 @@
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="AS8">
         <v>1000</v>
@@ -2814,7 +2871,7 @@
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>1.05</v>
+        <v>8.6</v>
       </c>
       <c r="AY8">
         <v>1000</v>
@@ -2838,7 +2895,7 @@
         <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BG8">
         <v>7430526</v>
@@ -2850,183 +2907,183 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BK8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BL8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="BM8" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9">
-        <v>1.76</v>
+        <v>3.35</v>
       </c>
       <c r="G9">
-        <v>1.92</v>
+        <v>4.1</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2.34</v>
+      </c>
+      <c r="J9">
+        <v>3.35</v>
+      </c>
+      <c r="K9">
         <v>4.3</v>
       </c>
-      <c r="I9">
-        <v>5.6</v>
-      </c>
-      <c r="J9">
-        <v>3.55</v>
-      </c>
-      <c r="K9">
-        <v>4.1</v>
-      </c>
       <c r="L9">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="M9">
+        <v>2.04</v>
+      </c>
+      <c r="N9">
+        <v>1.97</v>
+      </c>
+      <c r="O9">
         <v>2.22</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>1.82</v>
       </c>
-      <c r="O9">
-        <v>2.08</v>
-      </c>
-      <c r="P9">
-        <v>1.81</v>
-      </c>
       <c r="Q9">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S9">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T9">
+        <v>10.5</v>
+      </c>
+      <c r="U9">
+        <v>14.5</v>
+      </c>
+      <c r="V9">
+        <v>7.6</v>
+      </c>
+      <c r="W9">
+        <v>10.5</v>
+      </c>
+      <c r="X9">
+        <v>10.5</v>
+      </c>
+      <c r="Y9">
+        <v>14.5</v>
+      </c>
+      <c r="Z9">
+        <v>21</v>
+      </c>
+      <c r="AA9">
+        <v>30</v>
+      </c>
+      <c r="AB9">
+        <v>11</v>
+      </c>
+      <c r="AC9">
+        <v>14.5</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>12.5</v>
+      </c>
+      <c r="AH9">
+        <v>19</v>
+      </c>
+      <c r="AI9">
+        <v>26</v>
+      </c>
+      <c r="AJ9">
+        <v>21</v>
+      </c>
+      <c r="AK9">
+        <v>28</v>
+      </c>
+      <c r="AL9">
         <v>12</v>
       </c>
-      <c r="U9">
+      <c r="AM9">
         <v>16.5</v>
-      </c>
-      <c r="V9">
-        <v>14</v>
-      </c>
-      <c r="W9">
-        <v>19.5</v>
-      </c>
-      <c r="X9">
-        <v>5.7</v>
-      </c>
-      <c r="Y9">
-        <v>40</v>
-      </c>
-      <c r="Z9">
-        <v>6.2</v>
-      </c>
-      <c r="AA9">
-        <v>120</v>
-      </c>
-      <c r="AB9">
-        <v>7.4</v>
-      </c>
-      <c r="AC9">
-        <v>10</v>
-      </c>
-      <c r="AD9">
-        <v>7.6</v>
-      </c>
-      <c r="AE9">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF9">
-        <v>15.5</v>
-      </c>
-      <c r="AG9">
-        <v>22</v>
-      </c>
-      <c r="AH9">
-        <v>6</v>
-      </c>
-      <c r="AI9">
-        <v>70</v>
-      </c>
-      <c r="AJ9">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK9">
-        <v>12.5</v>
-      </c>
-      <c r="AL9">
-        <v>8.4</v>
-      </c>
-      <c r="AM9">
-        <v>11.5</v>
       </c>
       <c r="AN9">
         <v>16.5</v>
       </c>
       <c r="AO9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP9">
+        <v>6.4</v>
+      </c>
+      <c r="AQ9">
+        <v>46</v>
+      </c>
+      <c r="AR9">
         <v>6</v>
       </c>
-      <c r="AQ9">
-        <v>75</v>
-      </c>
-      <c r="AR9">
-        <v>16.5</v>
-      </c>
       <c r="AS9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AT9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AU9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AV9">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AW9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AX9">
         <v>6.2</v>
       </c>
       <c r="AY9">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AZ9">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="BA9">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="BB9">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="BC9">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="BD9">
         <v>6.6</v>
@@ -3035,225 +3092,225 @@
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BG9">
-        <v>10513040</v>
+        <v>13712494</v>
       </c>
       <c r="BH9">
-        <v>501200</v>
+        <v>5352229</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BK9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="BL9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="BM9" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="G10">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="H10">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="I10">
+        <v>5.5</v>
+      </c>
+      <c r="J10">
+        <v>3.55</v>
+      </c>
+      <c r="K10">
+        <v>4.1</v>
+      </c>
+      <c r="L10">
+        <v>1.94</v>
+      </c>
+      <c r="M10">
+        <v>2.14</v>
+      </c>
+      <c r="N10">
+        <v>1.88</v>
+      </c>
+      <c r="O10">
+        <v>2.06</v>
+      </c>
+      <c r="P10">
+        <v>1.81</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2.24</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+      <c r="U10">
+        <v>16.5</v>
+      </c>
+      <c r="V10">
+        <v>14</v>
+      </c>
+      <c r="W10">
+        <v>19.5</v>
+      </c>
+      <c r="X10">
+        <v>5.7</v>
+      </c>
+      <c r="Y10">
+        <v>40</v>
+      </c>
+      <c r="Z10">
         <v>6.2</v>
       </c>
-      <c r="J10">
-        <v>3.75</v>
-      </c>
-      <c r="K10">
-        <v>4.5</v>
-      </c>
-      <c r="L10">
-        <v>2.18</v>
-      </c>
-      <c r="M10">
-        <v>2.48</v>
-      </c>
-      <c r="N10">
-        <v>1.67</v>
-      </c>
-      <c r="O10">
-        <v>1.85</v>
-      </c>
-      <c r="P10">
-        <v>1.72</v>
-      </c>
-      <c r="Q10">
-        <v>1.85</v>
-      </c>
-      <c r="R10">
-        <v>2.18</v>
-      </c>
-      <c r="S10">
-        <v>2.4</v>
-      </c>
-      <c r="T10">
-        <v>15</v>
-      </c>
-      <c r="U10">
+      <c r="AA10">
+        <v>120</v>
+      </c>
+      <c r="AB10">
+        <v>7.4</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>7.6</v>
+      </c>
+      <c r="AE10">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>15.5</v>
+      </c>
+      <c r="AG10">
         <v>22</v>
       </c>
-      <c r="V10">
-        <v>20</v>
-      </c>
-      <c r="W10">
-        <v>28</v>
-      </c>
-      <c r="X10">
-        <v>4.1</v>
-      </c>
-      <c r="Y10">
-        <v>60</v>
-      </c>
-      <c r="Z10">
-        <v>4.2</v>
-      </c>
-      <c r="AA10">
-        <v>160</v>
-      </c>
-      <c r="AB10">
-        <v>9.4</v>
-      </c>
-      <c r="AC10">
-        <v>13.5</v>
-      </c>
-      <c r="AD10">
-        <v>8</v>
-      </c>
-      <c r="AE10">
+      <c r="AH10">
+        <v>6</v>
+      </c>
+      <c r="AI10">
+        <v>70</v>
+      </c>
+      <c r="AJ10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>12.5</v>
+      </c>
+      <c r="AL10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM10">
         <v>11.5</v>
       </c>
-      <c r="AF10">
-        <v>18.5</v>
-      </c>
-      <c r="AG10">
-        <v>27</v>
-      </c>
-      <c r="AH10">
-        <v>4.1</v>
-      </c>
-      <c r="AI10">
-        <v>80</v>
-      </c>
-      <c r="AJ10">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK10">
-        <v>14</v>
-      </c>
-      <c r="AL10">
-        <v>9</v>
-      </c>
-      <c r="AM10">
-        <v>13</v>
-      </c>
       <c r="AN10">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO10">
         <v>22</v>
       </c>
       <c r="AP10">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AQ10">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR10">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU10">
         <v>21</v>
       </c>
       <c r="AV10">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="AW10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AX10">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="AY10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AZ10">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="BA10">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="BB10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC10">
         <v>75</v>
       </c>
       <c r="BD10">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BG10">
-        <v>50443280</v>
+        <v>10513040</v>
       </c>
       <c r="BH10">
-        <v>23228754</v>
+        <v>501200</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BK10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BL10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="BM10" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3264,592 +3321,592 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="G11">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>5.2</v>
       </c>
       <c r="I11">
-        <v>36</v>
+        <v>6.2</v>
       </c>
       <c r="J11">
-        <v>8.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="K11">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="O11">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="P11">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="Q11">
-        <v>2.72</v>
+        <v>1.85</v>
       </c>
       <c r="R11">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="S11">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U11">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="V11">
-        <v>7.4</v>
+        <v>20</v>
       </c>
       <c r="W11">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="X11">
+        <v>4.2</v>
+      </c>
+      <c r="Y11">
+        <v>60</v>
+      </c>
+      <c r="Z11">
+        <v>4.4</v>
+      </c>
+      <c r="AA11">
+        <v>160</v>
+      </c>
+      <c r="AB11">
+        <v>9.4</v>
+      </c>
+      <c r="AC11">
+        <v>13</v>
+      </c>
+      <c r="AD11">
         <v>8</v>
       </c>
-      <c r="Y11">
-        <v>330</v>
-      </c>
-      <c r="Z11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>11</v>
-      </c>
-      <c r="AD11">
+      <c r="AE11">
+        <v>11.5</v>
+      </c>
+      <c r="AF11">
         <v>18.5</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>27</v>
       </c>
-      <c r="AF11">
-        <v>7.6</v>
-      </c>
-      <c r="AG11">
-        <v>120</v>
-      </c>
       <c r="AH11">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="AI11">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="AJ11">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK11">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AL11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AM11">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AN11">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AO11">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AP11">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="AQ11">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AR11">
-        <v>7.2</v>
+        <v>14.5</v>
       </c>
       <c r="AS11">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="AT11">
         <v>13</v>
       </c>
       <c r="AU11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV11">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="AW11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AX11">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="AY11">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AZ11">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="BA11">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="BB11">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="BC11">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BD11">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BG11">
-        <v>1550828</v>
+        <v>50443280</v>
       </c>
       <c r="BH11">
-        <v>50443413</v>
+        <v>23228754</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BK11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="BL11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="BM11" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12">
+        <v>1.14</v>
+      </c>
+      <c r="G12">
         <v>1.18</v>
       </c>
-      <c r="G12">
-        <v>1.26</v>
-      </c>
       <c r="H12">
-        <v>1.04</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="J12">
-        <v>1.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K12">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="L12">
-        <v>2.32</v>
+        <v>2.82</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
+        <v>1.44</v>
+      </c>
+      <c r="O12">
         <v>1.55</v>
       </c>
-      <c r="O12">
-        <v>1.76</v>
-      </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BG12">
-        <v>238549</v>
+        <v>1550828</v>
       </c>
       <c r="BH12">
-        <v>10053070</v>
+        <v>50443413</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BK12" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="G13">
-        <v>4.5</v>
+        <v>1.26</v>
       </c>
       <c r="H13">
-        <v>2.18</v>
+        <v>15</v>
       </c>
       <c r="I13">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>5.8</v>
+      </c>
+      <c r="K13">
+        <v>13.5</v>
+      </c>
+      <c r="L13">
+        <v>2.32</v>
+      </c>
+      <c r="M13">
         <v>2.58</v>
       </c>
-      <c r="J13">
-        <v>3.05</v>
-      </c>
-      <c r="K13">
-        <v>3.95</v>
-      </c>
-      <c r="L13">
-        <v>1.5</v>
-      </c>
-      <c r="M13">
-        <v>1.86</v>
-      </c>
       <c r="N13">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="O13">
-        <v>2.98</v>
+        <v>1.76</v>
       </c>
       <c r="P13">
-        <v>1.12</v>
+        <v>2.3</v>
       </c>
       <c r="Q13">
-        <v>110</v>
+        <v>2.82</v>
       </c>
       <c r="R13">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="S13">
-        <v>9.4</v>
+        <v>1.76</v>
       </c>
       <c r="T13">
+        <v>2.14</v>
+      </c>
+      <c r="U13">
+        <v>980</v>
+      </c>
+      <c r="V13">
+        <v>1.47</v>
+      </c>
+      <c r="W13">
+        <v>980</v>
+      </c>
+      <c r="X13">
+        <v>1.41</v>
+      </c>
+      <c r="Y13">
+        <v>1000</v>
+      </c>
+      <c r="Z13">
+        <v>1.28</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
         <v>3.2</v>
       </c>
-      <c r="U13">
-        <v>980</v>
-      </c>
-      <c r="V13">
-        <v>3.05</v>
-      </c>
-      <c r="W13">
-        <v>980</v>
-      </c>
-      <c r="X13">
+      <c r="AC13">
+        <v>980</v>
+      </c>
+      <c r="AD13">
+        <v>3.75</v>
+      </c>
+      <c r="AE13">
+        <v>980</v>
+      </c>
+      <c r="AF13">
+        <v>1.31</v>
+      </c>
+      <c r="AG13">
+        <v>980</v>
+      </c>
+      <c r="AH13">
+        <v>1.28</v>
+      </c>
+      <c r="AI13">
+        <v>1000</v>
+      </c>
+      <c r="AJ13">
+        <v>2.96</v>
+      </c>
+      <c r="AK13">
+        <v>8.6</v>
+      </c>
+      <c r="AL13">
         <v>3.45</v>
       </c>
-      <c r="Y13">
-        <v>16.5</v>
-      </c>
-      <c r="Z13">
-        <v>3.95</v>
-      </c>
-      <c r="AA13">
-        <v>1000</v>
-      </c>
-      <c r="AB13">
-        <v>3.3</v>
-      </c>
-      <c r="AC13">
-        <v>980</v>
-      </c>
-      <c r="AD13">
-        <v>3.05</v>
-      </c>
-      <c r="AE13">
-        <v>980</v>
-      </c>
-      <c r="AF13">
-        <v>3.35</v>
-      </c>
-      <c r="AG13">
-        <v>980</v>
-      </c>
-      <c r="AH13">
-        <v>3.9</v>
-      </c>
-      <c r="AI13">
-        <v>1000</v>
-      </c>
-      <c r="AJ13">
+      <c r="AM13">
+        <v>980</v>
+      </c>
+      <c r="AN13">
+        <v>1.47</v>
+      </c>
+      <c r="AO13">
+        <v>980</v>
+      </c>
+      <c r="AP13">
+        <v>1.41</v>
+      </c>
+      <c r="AQ13">
+        <v>1000</v>
+      </c>
+      <c r="AR13">
         <v>3.15</v>
       </c>
-      <c r="AK13">
-        <v>30</v>
-      </c>
-      <c r="AL13">
-        <v>3.55</v>
-      </c>
-      <c r="AM13">
-        <v>980</v>
-      </c>
-      <c r="AN13">
-        <v>3.75</v>
-      </c>
-      <c r="AO13">
-        <v>980</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AQ13">
-        <v>1000</v>
-      </c>
-      <c r="AR13">
-        <v>2.44</v>
-      </c>
       <c r="AS13">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AT13">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AU13">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AV13">
-        <v>3.15</v>
+        <v>1.48</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="BA13">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="BB13">
-        <v>2.44</v>
+        <v>1.15</v>
       </c>
       <c r="BC13">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="BD13">
-        <v>1.61</v>
+        <v>1.15</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BG13">
-        <v>11635228</v>
+        <v>238549</v>
       </c>
       <c r="BH13">
-        <v>1532826</v>
+        <v>10053070</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BK13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BL13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="BM13" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -3861,187 +3918,187 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F14">
-        <v>1.58</v>
+        <v>3.25</v>
       </c>
       <c r="G14">
-        <v>1.66</v>
+        <v>4.4</v>
       </c>
       <c r="H14">
-        <v>6.8</v>
+        <v>2.18</v>
       </c>
       <c r="I14">
-        <v>7.8</v>
+        <v>2.72</v>
       </c>
       <c r="J14">
+        <v>2.68</v>
+      </c>
+      <c r="K14">
+        <v>3.95</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>1.86</v>
+      </c>
+      <c r="N14">
+        <v>2.16</v>
+      </c>
+      <c r="O14">
+        <v>2.98</v>
+      </c>
+      <c r="P14">
+        <v>1.12</v>
+      </c>
+      <c r="Q14">
+        <v>110</v>
+      </c>
+      <c r="R14">
+        <v>1.12</v>
+      </c>
+      <c r="S14">
+        <v>9.4</v>
+      </c>
+      <c r="T14">
+        <v>3.15</v>
+      </c>
+      <c r="U14">
+        <v>980</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>980</v>
+      </c>
+      <c r="X14">
+        <v>3.55</v>
+      </c>
+      <c r="Y14">
+        <v>16.5</v>
+      </c>
+      <c r="Z14">
+        <v>3.95</v>
+      </c>
+      <c r="AA14">
+        <v>1000</v>
+      </c>
+      <c r="AB14">
+        <v>3.3</v>
+      </c>
+      <c r="AC14">
+        <v>980</v>
+      </c>
+      <c r="AD14">
+        <v>3.05</v>
+      </c>
+      <c r="AE14">
+        <v>980</v>
+      </c>
+      <c r="AF14">
+        <v>3.35</v>
+      </c>
+      <c r="AG14">
+        <v>980</v>
+      </c>
+      <c r="AH14">
         <v>3.9</v>
       </c>
-      <c r="K14">
-        <v>4.3</v>
-      </c>
-      <c r="L14">
-        <v>1.76</v>
-      </c>
-      <c r="M14">
-        <v>1.92</v>
-      </c>
-      <c r="N14">
+      <c r="AI14">
+        <v>1000</v>
+      </c>
+      <c r="AJ14">
+        <v>2.44</v>
+      </c>
+      <c r="AK14">
+        <v>30</v>
+      </c>
+      <c r="AL14">
+        <v>2.34</v>
+      </c>
+      <c r="AM14">
+        <v>980</v>
+      </c>
+      <c r="AN14">
+        <v>3.75</v>
+      </c>
+      <c r="AO14">
+        <v>980</v>
+      </c>
+      <c r="AP14">
+        <v>3.35</v>
+      </c>
+      <c r="AQ14">
+        <v>1000</v>
+      </c>
+      <c r="AR14">
         <v>2.08</v>
       </c>
-      <c r="O14">
-        <v>2.32</v>
-      </c>
-      <c r="P14">
-        <v>2.18</v>
-      </c>
-      <c r="Q14">
-        <v>2.36</v>
-      </c>
-      <c r="R14">
-        <v>1.74</v>
-      </c>
-      <c r="S14">
-        <v>1.85</v>
-      </c>
-      <c r="T14">
-        <v>10.5</v>
-      </c>
-      <c r="U14">
-        <v>13.5</v>
-      </c>
-      <c r="V14">
-        <v>17.5</v>
-      </c>
-      <c r="W14">
-        <v>22</v>
-      </c>
-      <c r="X14">
-        <v>6.2</v>
-      </c>
-      <c r="Y14">
-        <v>65</v>
-      </c>
-      <c r="Z14">
-        <v>6.6</v>
-      </c>
-      <c r="AA14">
-        <v>260</v>
-      </c>
-      <c r="AB14">
-        <v>6.2</v>
-      </c>
-      <c r="AC14">
-        <v>7.6</v>
-      </c>
-      <c r="AD14">
-        <v>8.4</v>
-      </c>
-      <c r="AE14">
-        <v>10.5</v>
-      </c>
-      <c r="AF14">
-        <v>20</v>
-      </c>
-      <c r="AG14">
-        <v>32</v>
-      </c>
-      <c r="AH14">
-        <v>6.4</v>
-      </c>
-      <c r="AI14">
-        <v>140</v>
-      </c>
-      <c r="AJ14">
-        <v>7.6</v>
-      </c>
-      <c r="AK14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AL14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM14">
-        <v>11.5</v>
-      </c>
-      <c r="AN14">
-        <v>20</v>
-      </c>
-      <c r="AO14">
-        <v>32</v>
-      </c>
-      <c r="AP14">
-        <v>6.4</v>
-      </c>
-      <c r="AQ14">
-        <v>150</v>
-      </c>
-      <c r="AR14">
-        <v>13</v>
-      </c>
       <c r="AS14">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AT14">
-        <v>17</v>
+        <v>4.1</v>
       </c>
       <c r="AU14">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AV14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AX14">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="AY14">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="BA14">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="BB14">
-        <v>6.6</v>
+        <v>2.66</v>
       </c>
       <c r="BC14">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="BD14">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BG14">
-        <v>60298</v>
+        <v>11635228</v>
       </c>
       <c r="BH14">
-        <v>60295</v>
+        <v>1532826</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BK14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="BL14" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="BM14" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4058,187 +4115,187 @@
         <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15">
-        <v>3.15</v>
+        <v>1.56</v>
       </c>
       <c r="G15">
-        <v>3.65</v>
+        <v>1.65</v>
       </c>
       <c r="H15">
-        <v>2.16</v>
+        <v>6.8</v>
       </c>
       <c r="I15">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="J15">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K15">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L15">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M15">
+        <v>1.92</v>
+      </c>
+      <c r="N15">
+        <v>2.08</v>
+      </c>
+      <c r="O15">
+        <v>2.32</v>
+      </c>
+      <c r="P15">
+        <v>2.18</v>
+      </c>
+      <c r="Q15">
         <v>2.34</v>
       </c>
-      <c r="N15">
+      <c r="R15">
         <v>1.74</v>
       </c>
-      <c r="O15">
-        <v>1.91</v>
-      </c>
-      <c r="P15">
-        <v>1.66</v>
-      </c>
-      <c r="Q15">
-        <v>1.77</v>
-      </c>
-      <c r="R15">
-        <v>2.3</v>
-      </c>
       <c r="S15">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="U15">
+        <v>13.5</v>
+      </c>
+      <c r="V15">
+        <v>17.5</v>
+      </c>
+      <c r="W15">
+        <v>22</v>
+      </c>
+      <c r="X15">
+        <v>6.2</v>
+      </c>
+      <c r="Y15">
+        <v>65</v>
+      </c>
+      <c r="Z15">
+        <v>6.6</v>
+      </c>
+      <c r="AA15">
+        <v>260</v>
+      </c>
+      <c r="AB15">
+        <v>6.2</v>
+      </c>
+      <c r="AC15">
+        <v>7.6</v>
+      </c>
+      <c r="AD15">
+        <v>8.4</v>
+      </c>
+      <c r="AE15">
+        <v>10.5</v>
+      </c>
+      <c r="AF15">
         <v>21</v>
       </c>
-      <c r="V15">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="W15">
-        <v>14.5</v>
-      </c>
-      <c r="X15">
+      <c r="AG15">
+        <v>32</v>
+      </c>
+      <c r="AH15">
+        <v>6.4</v>
+      </c>
+      <c r="AI15">
+        <v>140</v>
+      </c>
+      <c r="AJ15">
+        <v>7.6</v>
+      </c>
+      <c r="AK15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM15">
+        <v>11.5</v>
+      </c>
+      <c r="AN15">
+        <v>19.5</v>
+      </c>
+      <c r="AO15">
+        <v>32</v>
+      </c>
+      <c r="AP15">
+        <v>6.4</v>
+      </c>
+      <c r="AQ15">
+        <v>150</v>
+      </c>
+      <c r="AR15">
         <v>13</v>
       </c>
-      <c r="Y15">
-        <v>19</v>
-      </c>
-      <c r="Z15">
-        <v>4.2</v>
-      </c>
-      <c r="AA15">
-        <v>36</v>
-      </c>
-      <c r="AB15">
-        <v>12.5</v>
-      </c>
-      <c r="AC15">
-        <v>18.5</v>
-      </c>
-      <c r="AD15">
-        <v>7.6</v>
-      </c>
-      <c r="AE15">
-        <v>11</v>
-      </c>
-      <c r="AF15">
-        <v>9.4</v>
-      </c>
-      <c r="AG15">
-        <v>13.5</v>
-      </c>
-      <c r="AH15">
-        <v>18</v>
-      </c>
-      <c r="AI15">
-        <v>27</v>
-      </c>
-      <c r="AJ15">
-        <v>17.5</v>
-      </c>
-      <c r="AK15">
-        <v>30</v>
-      </c>
-      <c r="AL15">
-        <v>12.5</v>
-      </c>
-      <c r="AM15">
-        <v>17.5</v>
-      </c>
-      <c r="AN15">
-        <v>13.5</v>
-      </c>
-      <c r="AO15">
+      <c r="AS15">
+        <v>16.5</v>
+      </c>
+      <c r="AT15">
+        <v>17</v>
+      </c>
+      <c r="AU15">
         <v>21</v>
       </c>
-      <c r="AP15">
-        <v>4.3</v>
-      </c>
-      <c r="AQ15">
-        <v>42</v>
-      </c>
-      <c r="AR15">
-        <v>4.1</v>
-      </c>
-      <c r="AS15">
-        <v>70</v>
-      </c>
-      <c r="AT15">
-        <v>4.3</v>
-      </c>
-      <c r="AU15">
-        <v>42</v>
-      </c>
       <c r="AV15">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="AW15">
         <v>55</v>
       </c>
       <c r="AX15">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="AY15">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AZ15">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="BA15">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="BB15">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="BC15">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="BD15">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="BE15">
-        <v>740</v>
+        <v>1000</v>
       </c>
       <c r="BF15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BG15">
-        <v>522058</v>
+        <v>60298</v>
       </c>
       <c r="BH15">
-        <v>44504</v>
+        <v>60295</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BK15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BL15" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="BM15" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4255,187 +4312,187 @@
         <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F16">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="G16">
+        <v>3.65</v>
+      </c>
+      <c r="H16">
+        <v>2.2</v>
+      </c>
+      <c r="I16">
         <v>2.42</v>
       </c>
-      <c r="H16">
-        <v>3.2</v>
-      </c>
-      <c r="I16">
-        <v>3.7</v>
-      </c>
       <c r="J16">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="M16">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="N16">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="O16">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="P16">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Q16">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="R16">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="S16">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T16">
         <v>12.5</v>
       </c>
       <c r="U16">
+        <v>21</v>
+      </c>
+      <c r="V16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W16">
+        <v>14.5</v>
+      </c>
+      <c r="X16">
+        <v>12.5</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>4.4</v>
+      </c>
+      <c r="AA16">
+        <v>36</v>
+      </c>
+      <c r="AB16">
+        <v>12.5</v>
+      </c>
+      <c r="AC16">
+        <v>18.5</v>
+      </c>
+      <c r="AD16">
+        <v>7.2</v>
+      </c>
+      <c r="AE16">
+        <v>9.6</v>
+      </c>
+      <c r="AF16">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG16">
+        <v>13.5</v>
+      </c>
+      <c r="AH16">
         <v>18</v>
       </c>
-      <c r="V16">
-        <v>12</v>
-      </c>
-      <c r="W16">
-        <v>17</v>
-      </c>
-      <c r="X16">
-        <v>4.3</v>
-      </c>
-      <c r="Y16">
-        <v>29</v>
-      </c>
-      <c r="Z16">
-        <v>4.3</v>
-      </c>
-      <c r="AA16">
+      <c r="AI16">
+        <v>27</v>
+      </c>
+      <c r="AJ16">
+        <v>19.5</v>
+      </c>
+      <c r="AK16">
+        <v>30</v>
+      </c>
+      <c r="AL16">
+        <v>11.5</v>
+      </c>
+      <c r="AM16">
+        <v>17.5</v>
+      </c>
+      <c r="AN16">
+        <v>13.5</v>
+      </c>
+      <c r="AO16">
+        <v>21</v>
+      </c>
+      <c r="AP16">
+        <v>4.5</v>
+      </c>
+      <c r="AQ16">
+        <v>40</v>
+      </c>
+      <c r="AR16">
+        <v>4.4</v>
+      </c>
+      <c r="AS16">
         <v>70</v>
       </c>
-      <c r="AB16">
-        <v>9.6</v>
-      </c>
-      <c r="AC16">
-        <v>13.5</v>
-      </c>
-      <c r="AD16">
-        <v>6.8</v>
-      </c>
-      <c r="AE16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF16">
-        <v>11</v>
-      </c>
-      <c r="AG16">
-        <v>17.5</v>
-      </c>
-      <c r="AH16">
-        <v>4.2</v>
-      </c>
-      <c r="AI16">
-        <v>46</v>
-      </c>
-      <c r="AJ16">
-        <v>13</v>
-      </c>
-      <c r="AK16">
-        <v>18.5</v>
-      </c>
-      <c r="AL16">
-        <v>9.6</v>
-      </c>
-      <c r="AM16">
-        <v>14</v>
-      </c>
-      <c r="AN16">
-        <v>13</v>
-      </c>
-      <c r="AO16">
-        <v>22</v>
-      </c>
-      <c r="AP16">
-        <v>4.3</v>
-      </c>
-      <c r="AQ16">
-        <v>60</v>
-      </c>
-      <c r="AR16">
-        <v>4.1</v>
-      </c>
-      <c r="AS16">
-        <v>38</v>
-      </c>
       <c r="AT16">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AU16">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AV16">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AW16">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AX16">
         <v>4.4</v>
       </c>
       <c r="AY16">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AZ16">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BA16">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BB16">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="BC16">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="BD16">
         <v>4.6</v>
       </c>
       <c r="BE16">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="BF16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BG16">
-        <v>522041</v>
+        <v>522058</v>
       </c>
       <c r="BH16">
-        <v>60307</v>
+        <v>44504</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BK16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="BL16" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="BM16" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4452,187 +4509,187 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F17">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="G17">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H17">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I17">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K17">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L17">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="M17">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
       <c r="N17">
-        <v>2.66</v>
+        <v>1.86</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="P17">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="Q17">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="R17">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="S17">
-        <v>1.82</v>
+        <v>2.34</v>
       </c>
       <c r="T17">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="U17">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W17">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="X17">
         <v>4.2</v>
       </c>
       <c r="Y17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z17">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AA17">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB17">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC17">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AD17">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AE17">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AF17">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="AG17">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH17">
         <v>4.5</v>
       </c>
       <c r="AI17">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AJ17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK17">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL17">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM17">
+        <v>14</v>
+      </c>
+      <c r="AN17">
         <v>15.5</v>
       </c>
-      <c r="AN17">
-        <v>4.3</v>
-      </c>
       <c r="AO17">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AP17">
         <v>4.6</v>
       </c>
       <c r="AQ17">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AR17">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AS17">
+        <v>38</v>
+      </c>
+      <c r="AT17">
+        <v>21</v>
+      </c>
+      <c r="AU17">
+        <v>29</v>
+      </c>
+      <c r="AV17">
+        <v>4.5</v>
+      </c>
+      <c r="AW17">
         <v>46</v>
       </c>
-      <c r="AT17">
-        <v>4.3</v>
-      </c>
-      <c r="AU17">
-        <v>46</v>
-      </c>
-      <c r="AV17">
+      <c r="AX17">
+        <v>4.5</v>
+      </c>
+      <c r="AY17">
+        <v>120</v>
+      </c>
+      <c r="AZ17">
+        <v>3.8</v>
+      </c>
+      <c r="BA17">
+        <v>21</v>
+      </c>
+      <c r="BB17">
+        <v>4.2</v>
+      </c>
+      <c r="BC17">
+        <v>42</v>
+      </c>
+      <c r="BD17">
         <v>4.6</v>
       </c>
-      <c r="AW17">
-        <v>90</v>
-      </c>
-      <c r="AX17">
-        <v>4.7</v>
-      </c>
-      <c r="AY17">
-        <v>1000</v>
-      </c>
-      <c r="AZ17">
-        <v>4.4</v>
-      </c>
-      <c r="BA17">
-        <v>50</v>
-      </c>
-      <c r="BB17">
-        <v>4.3</v>
-      </c>
-      <c r="BC17">
-        <v>100</v>
-      </c>
-      <c r="BD17">
-        <v>4.4</v>
-      </c>
       <c r="BE17">
         <v>1000</v>
       </c>
       <c r="BF17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BG17">
-        <v>201261</v>
+        <v>522041</v>
       </c>
       <c r="BH17">
-        <v>60302</v>
+        <v>60307</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BK17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="BL17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="BM17" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4649,778 +4706,778 @@
         <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="G18">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="H18">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="M18">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="N18">
+        <v>2.66</v>
+      </c>
+      <c r="O18">
+        <v>3.05</v>
+      </c>
+      <c r="P18">
+        <v>2.22</v>
+      </c>
+      <c r="Q18">
         <v>2.38</v>
       </c>
-      <c r="O18">
-        <v>2.6</v>
-      </c>
-      <c r="P18">
-        <v>2.04</v>
-      </c>
-      <c r="Q18">
-        <v>2.2</v>
-      </c>
       <c r="R18">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="S18">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="T18">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="U18">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="V18">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="W18">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X18">
-        <v>18.5</v>
+        <v>4.2</v>
       </c>
       <c r="Y18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z18">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="AA18">
         <v>90</v>
       </c>
       <c r="AB18">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AC18">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD18">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE18">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AF18">
-        <v>14.5</v>
+        <v>4.1</v>
       </c>
       <c r="AG18">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH18">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="AI18">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ18">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK18">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL18">
         <v>10.5</v>
       </c>
       <c r="AM18">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AN18">
-        <v>19.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO18">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AP18">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="AQ18">
+        <v>110</v>
+      </c>
+      <c r="AR18">
+        <v>4.4</v>
+      </c>
+      <c r="AS18">
+        <v>46</v>
+      </c>
+      <c r="AT18">
+        <v>4.4</v>
+      </c>
+      <c r="AU18">
+        <v>46</v>
+      </c>
+      <c r="AV18">
+        <v>4.6</v>
+      </c>
+      <c r="AW18">
         <v>85</v>
       </c>
-      <c r="AR18">
-        <v>25</v>
-      </c>
-      <c r="AS18">
-        <v>34</v>
-      </c>
-      <c r="AT18">
-        <v>24</v>
-      </c>
-      <c r="AU18">
-        <v>32</v>
-      </c>
-      <c r="AV18">
-        <v>6</v>
-      </c>
-      <c r="AW18">
-        <v>60</v>
-      </c>
       <c r="AX18">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="AY18">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AZ18">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BA18">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="BB18">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="BC18">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="BD18">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="BE18">
         <v>1000</v>
       </c>
       <c r="BF18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BG18">
-        <v>4893599</v>
+        <v>201261</v>
       </c>
       <c r="BH18">
-        <v>60308</v>
+        <v>60302</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BK18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BL18" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="BM18" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G19">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="H19">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="I19">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K19">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L19">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="M19">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="N19">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="O19">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="P19">
-        <v>1.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>2.18</v>
       </c>
       <c r="R19">
-        <v>1.12</v>
+        <v>1.84</v>
       </c>
       <c r="S19">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="T19">
-        <v>1.48</v>
+        <v>8.6</v>
       </c>
       <c r="U19">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="V19">
-        <v>2.92</v>
+        <v>10</v>
       </c>
       <c r="W19">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="X19">
-        <v>2.92</v>
+        <v>18.5</v>
       </c>
       <c r="Y19">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z19">
-        <v>2.98</v>
+        <v>6.4</v>
       </c>
       <c r="AA19">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB19">
-        <v>1.03</v>
+        <v>7</v>
       </c>
       <c r="AC19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>6.8</v>
+      </c>
+      <c r="AE19">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>14.5</v>
+      </c>
+      <c r="AG19">
+        <v>18</v>
+      </c>
+      <c r="AH19">
+        <v>6.2</v>
+      </c>
+      <c r="AI19">
+        <v>65</v>
+      </c>
+      <c r="AJ19">
+        <v>11.5</v>
+      </c>
+      <c r="AK19">
+        <v>14.5</v>
+      </c>
+      <c r="AL19">
+        <v>10.5</v>
+      </c>
+      <c r="AM19">
         <v>13</v>
       </c>
-      <c r="AD19">
-        <v>1.03</v>
-      </c>
-      <c r="AE19">
-        <v>9.4</v>
-      </c>
-      <c r="AF19">
-        <v>1.03</v>
-      </c>
-      <c r="AG19">
-        <v>1000</v>
-      </c>
-      <c r="AH19">
-        <v>5.9</v>
-      </c>
-      <c r="AI19">
-        <v>1000</v>
-      </c>
-      <c r="AJ19">
-        <v>3.55</v>
-      </c>
-      <c r="AK19">
-        <v>1000</v>
-      </c>
-      <c r="AL19">
-        <v>4.3</v>
-      </c>
-      <c r="AM19">
-        <v>12.5</v>
-      </c>
       <c r="AN19">
-        <v>5.2</v>
+        <v>19.5</v>
       </c>
       <c r="AO19">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AP19">
+        <v>6.4</v>
+      </c>
+      <c r="AQ19">
+        <v>85</v>
+      </c>
+      <c r="AR19">
+        <v>25</v>
+      </c>
+      <c r="AS19">
+        <v>34</v>
+      </c>
+      <c r="AT19">
+        <v>24</v>
+      </c>
+      <c r="AU19">
+        <v>32</v>
+      </c>
+      <c r="AV19">
+        <v>6.2</v>
+      </c>
+      <c r="AW19">
+        <v>60</v>
+      </c>
+      <c r="AX19">
         <v>6.6</v>
       </c>
-      <c r="AQ19">
-        <v>1000</v>
-      </c>
-      <c r="AR19">
-        <v>3.3</v>
-      </c>
-      <c r="AS19">
-        <v>1000</v>
-      </c>
-      <c r="AT19">
-        <v>7</v>
-      </c>
-      <c r="AU19">
-        <v>1000</v>
-      </c>
-      <c r="AV19">
-        <v>9.6</v>
-      </c>
-      <c r="AW19">
-        <v>1000</v>
-      </c>
-      <c r="AX19">
-        <v>10</v>
-      </c>
       <c r="AY19">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AZ19">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BA19">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="BB19">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC19">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="BD19">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE19">
         <v>1000</v>
       </c>
       <c r="BF19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BG19">
-        <v>505713</v>
+        <v>4893599</v>
       </c>
       <c r="BH19">
-        <v>25213143</v>
+        <v>60308</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BK19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BL19" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="BM19" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>2.92</v>
       </c>
       <c r="I20">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="J20">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="K20">
-        <v>5.2</v>
+        <v>330</v>
       </c>
       <c r="L20">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>2.02</v>
       </c>
       <c r="P20">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="Q20">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="R20">
-        <v>1.71</v>
+        <v>1.12</v>
       </c>
       <c r="S20">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="T20">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="U20">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="V20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="W20">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="X20">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="Y20">
         <v>1000</v>
       </c>
       <c r="Z20">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="AA20">
         <v>1000</v>
       </c>
       <c r="AB20">
-        <v>3.65</v>
+        <v>1.23</v>
       </c>
       <c r="AC20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD20">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AE20">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AF20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AG20">
         <v>1000</v>
       </c>
       <c r="AH20">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AI20">
         <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AK20">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AL20">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AM20">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AO20">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AP20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20">
         <v>1000</v>
       </c>
       <c r="AR20">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AS20">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AT20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AU20">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AV20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AW20">
         <v>1000</v>
       </c>
       <c r="AX20">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AY20">
         <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="BA20">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="BB20">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="BC20">
         <v>1000</v>
       </c>
       <c r="BD20">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BG20">
-        <v>12678248</v>
+        <v>505713</v>
       </c>
       <c r="BH20">
-        <v>365511</v>
+        <v>25213143</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BK20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BL20" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM20" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1.56</v>
       </c>
       <c r="G21">
-        <v>3.3</v>
+        <v>1.73</v>
       </c>
       <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J21">
+        <v>3.6</v>
+      </c>
+      <c r="K21">
+        <v>5.2</v>
+      </c>
+      <c r="L21">
+        <v>1.72</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>4.5</v>
+      </c>
+      <c r="P21">
+        <v>1.68</v>
+      </c>
+      <c r="Q21">
+        <v>2.32</v>
+      </c>
+      <c r="R21">
+        <v>1.75</v>
+      </c>
+      <c r="S21">
+        <v>1.9</v>
+      </c>
+      <c r="T21">
+        <v>3.85</v>
+      </c>
+      <c r="U21">
+        <v>980</v>
+      </c>
+      <c r="V21">
         <v>2.86</v>
       </c>
-      <c r="I21">
-        <v>3.1</v>
-      </c>
-      <c r="J21">
-        <v>2.9</v>
-      </c>
-      <c r="K21">
-        <v>2.98</v>
-      </c>
-      <c r="L21">
-        <v>1.53</v>
-      </c>
-      <c r="M21">
-        <v>1.66</v>
-      </c>
-      <c r="N21">
-        <v>2.5</v>
-      </c>
-      <c r="O21">
-        <v>2.9</v>
-      </c>
-      <c r="P21">
-        <v>1.85</v>
-      </c>
-      <c r="Q21">
+      <c r="W21">
+        <v>980</v>
+      </c>
+      <c r="X21">
+        <v>2.62</v>
+      </c>
+      <c r="Y21">
+        <v>1000</v>
+      </c>
+      <c r="Z21">
+        <v>3.4</v>
+      </c>
+      <c r="AA21">
+        <v>1000</v>
+      </c>
+      <c r="AB21">
+        <v>3.65</v>
+      </c>
+      <c r="AC21">
+        <v>980</v>
+      </c>
+      <c r="AD21">
+        <v>1.42</v>
+      </c>
+      <c r="AE21">
+        <v>980</v>
+      </c>
+      <c r="AF21">
+        <v>1.62</v>
+      </c>
+      <c r="AG21">
+        <v>980</v>
+      </c>
+      <c r="AH21">
+        <v>6.2</v>
+      </c>
+      <c r="AI21">
+        <v>1000</v>
+      </c>
+      <c r="AJ21">
+        <v>1.64</v>
+      </c>
+      <c r="AK21">
+        <v>9.4</v>
+      </c>
+      <c r="AL21">
+        <v>4.2</v>
+      </c>
+      <c r="AM21">
+        <v>980</v>
+      </c>
+      <c r="AN21">
+        <v>1.62</v>
+      </c>
+      <c r="AO21">
+        <v>980</v>
+      </c>
+      <c r="AP21">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AQ21">
+        <v>1000</v>
+      </c>
+      <c r="AR21">
         <v>2.2</v>
       </c>
-      <c r="R21">
-        <v>1.69</v>
-      </c>
-      <c r="S21">
-        <v>1.96</v>
-      </c>
-      <c r="T21">
-        <v>7.4</v>
-      </c>
-      <c r="U21">
-        <v>8.4</v>
-      </c>
-      <c r="V21">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="W21">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X21">
-        <v>15.5</v>
-      </c>
-      <c r="Y21">
-        <v>17.5</v>
-      </c>
-      <c r="Z21">
-        <v>12</v>
-      </c>
-      <c r="AA21">
-        <v>55</v>
-      </c>
-      <c r="AB21">
-        <v>8.4</v>
-      </c>
-      <c r="AC21">
-        <v>9.6</v>
-      </c>
-      <c r="AD21">
-        <v>6.2</v>
-      </c>
-      <c r="AE21">
-        <v>6.8</v>
-      </c>
-      <c r="AF21">
+      <c r="AS21">
+        <v>17</v>
+      </c>
+      <c r="AT21">
+        <v>3.7</v>
+      </c>
+      <c r="AU21">
+        <v>21</v>
+      </c>
+      <c r="AV21">
+        <v>5.6</v>
+      </c>
+      <c r="AW21">
+        <v>1000</v>
+      </c>
+      <c r="AX21">
+        <v>16.5</v>
+      </c>
+      <c r="AY21">
+        <v>1000</v>
+      </c>
+      <c r="AZ21">
+        <v>1.35</v>
+      </c>
+      <c r="BA21">
         <v>12.5</v>
       </c>
-      <c r="AG21">
-        <v>14.5</v>
-      </c>
-      <c r="AH21">
-        <v>11.5</v>
-      </c>
-      <c r="AI21">
-        <v>48</v>
-      </c>
-      <c r="AJ21">
-        <v>16.5</v>
-      </c>
-      <c r="AK21">
-        <v>18.5</v>
-      </c>
-      <c r="AL21">
-        <v>12.5</v>
-      </c>
-      <c r="AM21">
-        <v>15</v>
-      </c>
-      <c r="AN21">
-        <v>19</v>
-      </c>
-      <c r="AO21">
-        <v>22</v>
-      </c>
-      <c r="AP21">
-        <v>12.5</v>
-      </c>
-      <c r="AQ21">
-        <v>80</v>
-      </c>
-      <c r="AR21">
-        <v>12</v>
-      </c>
-      <c r="AS21">
-        <v>60</v>
-      </c>
-      <c r="AT21">
-        <v>11.5</v>
-      </c>
-      <c r="AU21">
-        <v>50</v>
-      </c>
-      <c r="AV21">
-        <v>12.5</v>
-      </c>
-      <c r="AW21">
-        <v>85</v>
-      </c>
-      <c r="AX21">
-        <v>14</v>
-      </c>
-      <c r="AY21">
-        <v>190</v>
-      </c>
-      <c r="AZ21">
-        <v>12</v>
-      </c>
-      <c r="BA21">
-        <v>65</v>
-      </c>
       <c r="BB21">
-        <v>11.5</v>
+        <v>1.11</v>
       </c>
       <c r="BC21">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BD21">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BG21">
-        <v>522049</v>
+        <v>12678248</v>
       </c>
       <c r="BH21">
-        <v>60293</v>
+        <v>365511</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BK21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BL21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="BM21" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5437,187 +5494,187 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="G22">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H22">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="I22">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="J22">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K22">
-        <v>3.85</v>
+        <v>2.96</v>
       </c>
       <c r="L22">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="M22">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="N22">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="O22">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
       <c r="P22">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="Q22">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R22">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S22">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="U22">
+        <v>8.4</v>
+      </c>
+      <c r="V22">
+        <v>7.8</v>
+      </c>
+      <c r="W22">
+        <v>9</v>
+      </c>
+      <c r="X22">
         <v>14.5</v>
       </c>
-      <c r="V22">
-        <v>7.2</v>
-      </c>
-      <c r="W22">
-        <v>9.6</v>
-      </c>
-      <c r="X22">
-        <v>10.5</v>
-      </c>
       <c r="Y22">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z22">
-        <v>1.03</v>
+        <v>38</v>
       </c>
       <c r="AA22">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AB22">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC22">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE22">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="AF22">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AG22">
         <v>13.5</v>
       </c>
       <c r="AH22">
-        <v>1.03</v>
+        <v>28</v>
       </c>
       <c r="AI22">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AJ22">
-        <v>1.03</v>
+        <v>17</v>
       </c>
       <c r="AK22">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL22">
         <v>13</v>
       </c>
       <c r="AM22">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AN22">
-        <v>1.03</v>
+        <v>19.5</v>
       </c>
       <c r="AO22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP22">
-        <v>1.03</v>
+        <v>46</v>
       </c>
       <c r="AQ22">
+        <v>100</v>
+      </c>
+      <c r="AR22">
+        <v>42</v>
+      </c>
+      <c r="AS22">
         <v>55</v>
       </c>
-      <c r="AR22">
-        <v>1.03</v>
-      </c>
-      <c r="AS22">
+      <c r="AT22">
+        <v>32</v>
+      </c>
+      <c r="AU22">
+        <v>46</v>
+      </c>
+      <c r="AV22">
+        <v>13.5</v>
+      </c>
+      <c r="AW22">
         <v>95</v>
       </c>
-      <c r="AT22">
-        <v>1.03</v>
-      </c>
-      <c r="AU22">
-        <v>65</v>
-      </c>
-      <c r="AV22">
-        <v>1.03</v>
-      </c>
-      <c r="AW22">
-        <v>80</v>
-      </c>
       <c r="AX22">
-        <v>1.03</v>
+        <v>15</v>
       </c>
       <c r="AY22">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AZ22">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="BA22">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BB22">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BC22">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="BD22">
-        <v>1.03</v>
+        <v>16</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
       <c r="BF22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BG22">
-        <v>20830801</v>
+        <v>522049</v>
       </c>
       <c r="BH22">
-        <v>191607</v>
+        <v>60293</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BK22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BL22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="BM22" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5634,192 +5691,192 @@
         <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H23">
-        <v>2.84</v>
+        <v>2.14</v>
       </c>
       <c r="I23">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="J23">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M23">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="N23">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="O23">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="P23">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q23">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="R23">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S23">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="T23">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="U23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V23">
+        <v>7.2</v>
+      </c>
+      <c r="W23">
+        <v>9.6</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>15.5</v>
+      </c>
+      <c r="Z23">
+        <v>4.5</v>
+      </c>
+      <c r="AA23">
+        <v>34</v>
+      </c>
+      <c r="AB23">
+        <v>10.5</v>
+      </c>
+      <c r="AC23">
+        <v>15.5</v>
+      </c>
+      <c r="AD23">
+        <v>6.8</v>
+      </c>
+      <c r="AE23">
         <v>8.6</v>
       </c>
-      <c r="W23">
-        <v>11.5</v>
-      </c>
-      <c r="X23">
-        <v>1.03</v>
-      </c>
-      <c r="Y23">
-        <v>21</v>
-      </c>
-      <c r="Z23">
-        <v>1.03</v>
-      </c>
-      <c r="AA23">
+      <c r="AF23">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG23">
+        <v>13.5</v>
+      </c>
+      <c r="AH23">
+        <v>19.5</v>
+      </c>
+      <c r="AI23">
+        <v>32</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>32</v>
+      </c>
+      <c r="AL23">
+        <v>13</v>
+      </c>
+      <c r="AM23">
+        <v>19.5</v>
+      </c>
+      <c r="AN23">
+        <v>15.5</v>
+      </c>
+      <c r="AO23">
+        <v>980</v>
+      </c>
+      <c r="AP23">
+        <v>4.9</v>
+      </c>
+      <c r="AQ23">
         <v>55</v>
       </c>
-      <c r="AB23">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC23">
-        <v>11</v>
-      </c>
-      <c r="AD23">
-        <v>6.2</v>
-      </c>
-      <c r="AE23">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF23">
-        <v>11</v>
-      </c>
-      <c r="AG23">
-        <v>15</v>
-      </c>
-      <c r="AH23">
-        <v>1.03</v>
-      </c>
-      <c r="AI23">
-        <v>42</v>
-      </c>
-      <c r="AJ23">
-        <v>13.5</v>
-      </c>
-      <c r="AK23">
-        <v>18.5</v>
-      </c>
-      <c r="AL23">
-        <v>10.5</v>
-      </c>
-      <c r="AM23">
-        <v>14</v>
-      </c>
-      <c r="AN23">
-        <v>1.03</v>
-      </c>
-      <c r="AO23">
-        <v>22</v>
-      </c>
-      <c r="AP23">
-        <v>1.03</v>
-      </c>
-      <c r="AQ23">
+      <c r="AR23">
+        <v>4.8</v>
+      </c>
+      <c r="AS23">
+        <v>90</v>
+      </c>
+      <c r="AT23">
+        <v>5</v>
+      </c>
+      <c r="AU23">
         <v>60</v>
       </c>
-      <c r="AR23">
-        <v>1.03</v>
-      </c>
-      <c r="AS23">
-        <v>46</v>
-      </c>
-      <c r="AT23">
-        <v>1.03</v>
-      </c>
-      <c r="AU23">
-        <v>38</v>
-      </c>
       <c r="AV23">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="AW23">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AX23">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AY23">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AZ23">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BA23">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="BB23">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BC23">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="BD23">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BG23">
-        <v>4893595</v>
+        <v>20830801</v>
       </c>
       <c r="BH23">
-        <v>7407</v>
+        <v>191607</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BK23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BL23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="BM23" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -5831,187 +5888,187 @@
         <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24">
-        <v>5.2</v>
+        <v>2.66</v>
       </c>
       <c r="G24">
-        <v>8.4</v>
+        <v>2.9</v>
       </c>
       <c r="H24">
-        <v>1.6</v>
+        <v>2.82</v>
       </c>
       <c r="I24">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="J24">
+        <v>3.2</v>
+      </c>
+      <c r="K24">
         <v>3.5</v>
       </c>
-      <c r="K24">
-        <v>4.9</v>
-      </c>
       <c r="L24">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M24">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="N24">
+        <v>2.14</v>
+      </c>
+      <c r="O24">
+        <v>2.44</v>
+      </c>
+      <c r="P24">
+        <v>1.9</v>
+      </c>
+      <c r="Q24">
         <v>2.04</v>
       </c>
-      <c r="O24">
-        <v>2.46</v>
-      </c>
-      <c r="P24">
-        <v>1.92</v>
-      </c>
-      <c r="Q24">
-        <v>2.4</v>
-      </c>
       <c r="R24">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="S24">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="T24">
-        <v>1.03</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U24">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="V24">
-        <v>1.03</v>
+        <v>8.6</v>
       </c>
       <c r="W24">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="X24">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="Y24">
+        <v>21</v>
+      </c>
+      <c r="Z24">
+        <v>5.9</v>
+      </c>
+      <c r="AA24">
+        <v>55</v>
+      </c>
+      <c r="AB24">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC24">
         <v>11</v>
       </c>
-      <c r="Z24">
-        <v>1.03</v>
-      </c>
-      <c r="AA24">
-        <v>20</v>
-      </c>
-      <c r="AB24">
-        <v>1.03</v>
-      </c>
-      <c r="AC24">
-        <v>22</v>
-      </c>
       <c r="AD24">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AE24">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF24">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AG24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH24">
-        <v>1.03</v>
+        <v>5.7</v>
       </c>
       <c r="AI24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AJ24">
-        <v>1.03</v>
+        <v>14</v>
       </c>
       <c r="AK24">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AL24">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AM24">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AN24">
-        <v>1.03</v>
+        <v>5.1</v>
       </c>
       <c r="AO24">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AP24">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AQ24">
         <v>60</v>
       </c>
       <c r="AR24">
-        <v>1.03</v>
+        <v>5.8</v>
       </c>
       <c r="AS24">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AT24">
-        <v>1.03</v>
+        <v>5.7</v>
       </c>
       <c r="AU24">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AV24">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="AW24">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX24">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AY24">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ24">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BA24">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="BB24">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BC24">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="BD24">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BG24">
-        <v>5259327</v>
+        <v>4893595</v>
       </c>
       <c r="BH24">
-        <v>19918253</v>
+        <v>7407</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BK24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BL24" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="BM24" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6028,192 +6085,192 @@
         <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="G25">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="I25">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="J25">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K25">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L25">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="M25">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="N25">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="O25">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="P25">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q25">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R25">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="S25">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="T25">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="U25">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="V25">
-        <v>1.03</v>
+        <v>5.4</v>
       </c>
       <c r="W25">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="X25">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="Y25">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z25">
-        <v>1.03</v>
+        <v>13</v>
       </c>
       <c r="AA25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB25">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="AC25">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AD25">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="AE25">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF25">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="AG25">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH25">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="AI25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AJ25">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AK25">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL25">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="AM25">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AN25">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AO25">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AP25">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AQ25">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AR25">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AS25">
         <v>1000</v>
       </c>
       <c r="AT25">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AW25">
         <v>1000</v>
       </c>
       <c r="AX25">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AY25">
         <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BA25">
         <v>1000</v>
       </c>
       <c r="BB25">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BC25">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="BD25">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BG25">
-        <v>5170870</v>
+        <v>5259327</v>
       </c>
       <c r="BH25">
-        <v>4768314</v>
+        <v>19918253</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="BK25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BL25" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="BM25" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
@@ -6225,384 +6282,384 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="I26">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="J26">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K26">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L26">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="M26">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="N26">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="O26">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="P26">
+        <v>2.02</v>
+      </c>
+      <c r="Q26">
+        <v>2.26</v>
+      </c>
+      <c r="R26">
         <v>1.79</v>
       </c>
-      <c r="Q26">
-        <v>2.08</v>
-      </c>
-      <c r="R26">
-        <v>1.93</v>
-      </c>
       <c r="S26">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="T26">
         <v>11</v>
       </c>
       <c r="U26">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="V26">
+        <v>6.2</v>
+      </c>
+      <c r="W26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X26">
         <v>7.4</v>
       </c>
-      <c r="W26">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X26">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Y26">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z26">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AA26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC26">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AD26">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AE26">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AF26">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG26">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ26">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="AK26">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL26">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="AM26">
+        <v>980</v>
+      </c>
+      <c r="AN26">
         <v>21</v>
       </c>
-      <c r="AN26">
-        <v>16.5</v>
-      </c>
       <c r="AO26">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP26">
-        <v>1.03</v>
+        <v>5.8</v>
       </c>
       <c r="AQ26">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AR26">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="AS26">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AT26">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AU26">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AV26">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AW26">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AX26">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="AY26">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AZ26">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="BA26">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="BB26">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="BC26">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="BD26">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BG26">
-        <v>2519553</v>
+        <v>5170870</v>
       </c>
       <c r="BH26">
-        <v>60311</v>
+        <v>4768314</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BK26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="BL26" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="BM26" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F27">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="G27">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="H27">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="I27">
-        <v>980</v>
+        <v>1.91</v>
       </c>
       <c r="J27">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K27">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L27">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="M27">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
+        <v>1.91</v>
+      </c>
+      <c r="O27">
+        <v>2.1</v>
+      </c>
+      <c r="P27">
+        <v>1.85</v>
+      </c>
+      <c r="Q27">
+        <v>2.02</v>
+      </c>
+      <c r="R27">
+        <v>1.99</v>
+      </c>
+      <c r="S27">
         <v>2.18</v>
       </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BG27">
-        <v>7067857</v>
+        <v>2519553</v>
       </c>
       <c r="BH27">
-        <v>364672</v>
+        <v>60311</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BK27" t="s">
-        <v>246</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6619,581 +6676,581 @@
         <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F28">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="G28">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H28">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="I28">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="J28">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="K28">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L28">
-        <v>1.06</v>
+        <v>1.48</v>
       </c>
       <c r="M28">
-        <v>980</v>
+        <v>1.84</v>
       </c>
       <c r="N28">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="O28">
-        <v>21</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BG28">
-        <v>38281353</v>
+        <v>7067857</v>
       </c>
       <c r="BH28">
-        <v>20785087</v>
+        <v>364672</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BK28" t="s">
-        <v>247</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="G29">
-        <v>2.96</v>
+        <v>980</v>
       </c>
       <c r="H29">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="I29">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="J29">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="K29">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="L29">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="M29">
-        <v>2.82</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="O29">
-        <v>1.74</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="BE29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BG29">
-        <v>65803</v>
+        <v>38281353</v>
       </c>
       <c r="BH29">
-        <v>505726</v>
+        <v>20785087</v>
       </c>
       <c r="BI29">
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BK29" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>285</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="G30">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="H30">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>3.15</v>
       </c>
       <c r="J30">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K30">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="L30">
-        <v>1.7</v>
+        <v>2.36</v>
       </c>
       <c r="M30">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="N30">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BG30">
-        <v>539982</v>
+        <v>65803</v>
       </c>
       <c r="BH30">
-        <v>2757225</v>
+        <v>505726</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BK30" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL30">
-        <v>0</v>
-      </c>
-      <c r="BM30">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>286</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7210,580 +7267,777 @@
         <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F31">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G31">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="H31">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="I31">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="J31">
+        <v>3.75</v>
+      </c>
+      <c r="K31">
+        <v>5.5</v>
+      </c>
+      <c r="L31">
+        <v>1.83</v>
+      </c>
+      <c r="M31">
+        <v>2.14</v>
+      </c>
+      <c r="N31">
+        <v>1.87</v>
+      </c>
+      <c r="O31">
+        <v>2.22</v>
+      </c>
+      <c r="P31">
+        <v>1.86</v>
+      </c>
+      <c r="Q31">
+        <v>2.2</v>
+      </c>
+      <c r="R31">
+        <v>1.83</v>
+      </c>
+      <c r="S31">
+        <v>2.16</v>
+      </c>
+      <c r="T31">
+        <v>3.5</v>
+      </c>
+      <c r="U31">
+        <v>980</v>
+      </c>
+      <c r="V31">
+        <v>2.34</v>
+      </c>
+      <c r="W31">
+        <v>980</v>
+      </c>
+      <c r="X31">
+        <v>1.31</v>
+      </c>
+      <c r="Y31">
+        <v>1000</v>
+      </c>
+      <c r="Z31">
+        <v>4.6</v>
+      </c>
+      <c r="AA31">
+        <v>1000</v>
+      </c>
+      <c r="AB31">
+        <v>6.6</v>
+      </c>
+      <c r="AC31">
+        <v>980</v>
+      </c>
+      <c r="AD31">
+        <v>2.1</v>
+      </c>
+      <c r="AE31">
+        <v>980</v>
+      </c>
+      <c r="AF31">
         <v>3.9</v>
       </c>
-      <c r="K31">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L31">
-        <v>1.98</v>
-      </c>
-      <c r="M31">
-        <v>3.1</v>
-      </c>
-      <c r="N31">
-        <v>1.47</v>
-      </c>
-      <c r="O31">
-        <v>2.04</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
       <c r="AG31">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BG31">
-        <v>46944</v>
+        <v>539982</v>
       </c>
       <c r="BH31">
-        <v>166863</v>
+        <v>2757225</v>
       </c>
       <c r="BI31">
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BK31" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>287</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F32">
-        <v>2.88</v>
+        <v>1.56</v>
       </c>
       <c r="G32">
-        <v>2.9</v>
+        <v>1.74</v>
       </c>
       <c r="H32">
-        <v>2.54</v>
+        <v>4.8</v>
       </c>
       <c r="I32">
-        <v>2.58</v>
+        <v>6.4</v>
       </c>
       <c r="J32">
+        <v>3.75</v>
+      </c>
+      <c r="K32">
+        <v>6.8</v>
+      </c>
+      <c r="L32">
+        <v>2.36</v>
+      </c>
+      <c r="M32">
+        <v>2.84</v>
+      </c>
+      <c r="N32">
+        <v>1.54</v>
+      </c>
+      <c r="O32">
+        <v>1.74</v>
+      </c>
+      <c r="P32">
+        <v>1.61</v>
+      </c>
+      <c r="Q32">
+        <v>1.85</v>
+      </c>
+      <c r="R32">
+        <v>2.16</v>
+      </c>
+      <c r="S32">
         <v>3.8</v>
       </c>
-      <c r="K32">
-        <v>3.85</v>
-      </c>
-      <c r="L32">
-        <v>2.68</v>
-      </c>
-      <c r="M32">
-        <v>2.82</v>
-      </c>
-      <c r="N32">
-        <v>1.56</v>
-      </c>
-      <c r="O32">
-        <v>1.59</v>
-      </c>
-      <c r="P32">
-        <v>1.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.53</v>
-      </c>
-      <c r="R32">
-        <v>2.92</v>
-      </c>
-      <c r="S32">
-        <v>2.98</v>
-      </c>
       <c r="T32">
-        <v>22</v>
+        <v>1.47</v>
       </c>
       <c r="U32">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="V32">
-        <v>15.5</v>
+        <v>2.6</v>
       </c>
       <c r="W32">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="X32">
-        <v>17.5</v>
+        <v>2.62</v>
       </c>
       <c r="Y32">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z32">
-        <v>32</v>
+        <v>3.3</v>
       </c>
       <c r="AA32">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB32">
-        <v>17</v>
+        <v>2.36</v>
       </c>
       <c r="AC32">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AD32">
-        <v>8.6</v>
+        <v>1.31</v>
       </c>
       <c r="AE32">
+        <v>12</v>
+      </c>
+      <c r="AF32">
+        <v>3.3</v>
+      </c>
+      <c r="AG32">
+        <v>1000</v>
+      </c>
+      <c r="AH32">
+        <v>5.9</v>
+      </c>
+      <c r="AI32">
+        <v>1000</v>
+      </c>
+      <c r="AJ32">
+        <v>4.4</v>
+      </c>
+      <c r="AK32">
+        <v>13</v>
+      </c>
+      <c r="AL32">
+        <v>4.3</v>
+      </c>
+      <c r="AM32">
+        <v>11.5</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>1000</v>
+      </c>
+      <c r="AP32">
+        <v>1.47</v>
+      </c>
+      <c r="AQ32">
+        <v>1000</v>
+      </c>
+      <c r="AR32">
+        <v>2.04</v>
+      </c>
+      <c r="AS32">
+        <v>1000</v>
+      </c>
+      <c r="AT32">
+        <v>2.52</v>
+      </c>
+      <c r="AU32">
+        <v>1000</v>
+      </c>
+      <c r="AV32">
+        <v>1.47</v>
+      </c>
+      <c r="AW32">
+        <v>1000</v>
+      </c>
+      <c r="AX32">
         <v>9.6</v>
       </c>
-      <c r="AF32">
-        <v>11.5</v>
-      </c>
-      <c r="AG32">
-        <v>12</v>
-      </c>
-      <c r="AH32">
-        <v>19.5</v>
-      </c>
-      <c r="AI32">
-        <v>27</v>
-      </c>
-      <c r="AJ32">
-        <v>21</v>
-      </c>
-      <c r="AK32">
-        <v>24</v>
-      </c>
-      <c r="AL32">
-        <v>12</v>
-      </c>
-      <c r="AM32">
-        <v>14</v>
-      </c>
-      <c r="AN32">
-        <v>12.5</v>
-      </c>
-      <c r="AO32">
-        <v>14.5</v>
-      </c>
-      <c r="AP32">
-        <v>24</v>
-      </c>
-      <c r="AQ32">
-        <v>29</v>
-      </c>
-      <c r="AR32">
-        <v>34</v>
-      </c>
-      <c r="AS32">
-        <v>55</v>
-      </c>
-      <c r="AT32">
-        <v>22</v>
-      </c>
-      <c r="AU32">
-        <v>32</v>
-      </c>
-      <c r="AV32">
-        <v>25</v>
-      </c>
-      <c r="AW32">
-        <v>36</v>
-      </c>
-      <c r="AX32">
-        <v>36</v>
-      </c>
       <c r="AY32">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>13</v>
+        <v>1.09</v>
       </c>
       <c r="BA32">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="BB32">
-        <v>10.5</v>
+        <v>1.09</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="BD32">
-        <v>50</v>
+        <v>2.52</v>
       </c>
       <c r="BE32">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BG32">
-        <v>44785</v>
+        <v>46944</v>
       </c>
       <c r="BH32">
-        <v>489720</v>
+        <v>166863</v>
       </c>
       <c r="BI32">
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BK32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BL32" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="BM32" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:65">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F33">
-        <v>1.49</v>
+        <v>2.88</v>
       </c>
       <c r="G33">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="I33">
+        <v>2.54</v>
+      </c>
+      <c r="J33">
+        <v>3.85</v>
+      </c>
+      <c r="K33">
+        <v>3.9</v>
+      </c>
+      <c r="L33">
+        <v>2.66</v>
+      </c>
+      <c r="M33">
+        <v>2.74</v>
+      </c>
+      <c r="N33">
+        <v>1.57</v>
+      </c>
+      <c r="O33">
+        <v>1.59</v>
+      </c>
+      <c r="P33">
+        <v>1.52</v>
+      </c>
+      <c r="Q33">
+        <v>1.53</v>
+      </c>
+      <c r="R33">
+        <v>2.92</v>
+      </c>
+      <c r="S33">
+        <v>2.94</v>
+      </c>
+      <c r="T33">
+        <v>21</v>
+      </c>
+      <c r="U33">
+        <v>25</v>
+      </c>
+      <c r="V33">
+        <v>15.5</v>
+      </c>
+      <c r="W33">
+        <v>17.5</v>
+      </c>
+      <c r="X33">
+        <v>18.5</v>
+      </c>
+      <c r="Y33">
+        <v>20</v>
+      </c>
+      <c r="Z33">
+        <v>34</v>
+      </c>
+      <c r="AA33">
+        <v>36</v>
+      </c>
+      <c r="AB33">
+        <v>17</v>
+      </c>
+      <c r="AC33">
+        <v>19</v>
+      </c>
+      <c r="AD33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE33">
+        <v>9.4</v>
+      </c>
+      <c r="AF33">
+        <v>11</v>
+      </c>
+      <c r="AG33">
+        <v>11.5</v>
+      </c>
+      <c r="AH33">
+        <v>20</v>
+      </c>
+      <c r="AI33">
+        <v>22</v>
+      </c>
+      <c r="AJ33">
+        <v>21</v>
+      </c>
+      <c r="AK33">
+        <v>23</v>
+      </c>
+      <c r="AL33">
+        <v>12</v>
+      </c>
+      <c r="AM33">
+        <v>12.5</v>
+      </c>
+      <c r="AN33">
+        <v>13</v>
+      </c>
+      <c r="AO33">
+        <v>14</v>
+      </c>
+      <c r="AP33">
+        <v>25</v>
+      </c>
+      <c r="AQ33">
+        <v>27</v>
+      </c>
+      <c r="AR33">
+        <v>42</v>
+      </c>
+      <c r="AS33">
+        <v>44</v>
+      </c>
+      <c r="AT33">
+        <v>23</v>
+      </c>
+      <c r="AU33">
+        <v>26</v>
+      </c>
+      <c r="AV33">
+        <v>28</v>
+      </c>
+      <c r="AW33">
+        <v>30</v>
+      </c>
+      <c r="AX33">
+        <v>42</v>
+      </c>
+      <c r="AY33">
+        <v>50</v>
+      </c>
+      <c r="AZ33">
         <v>14.5</v>
       </c>
-      <c r="J33">
-        <v>3.4</v>
-      </c>
-      <c r="K33">
-        <v>8.4</v>
-      </c>
-      <c r="L33">
-        <v>1.2</v>
-      </c>
-      <c r="M33">
-        <v>990</v>
-      </c>
-      <c r="N33">
-        <v>1.03</v>
-      </c>
-      <c r="O33">
-        <v>6.4</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <v>0</v>
-      </c>
       <c r="BA33">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BD33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE33">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="BF33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BG33">
-        <v>7005170</v>
+        <v>44785</v>
       </c>
       <c r="BH33">
-        <v>13749040</v>
+        <v>489720</v>
       </c>
       <c r="BI33">
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BK33" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL33">
+        <v>256</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>289</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34">
+        <v>1.63</v>
+      </c>
+      <c r="G34">
+        <v>1.99</v>
+      </c>
+      <c r="H34">
+        <v>3.6</v>
+      </c>
+      <c r="I34">
+        <v>11.5</v>
+      </c>
+      <c r="J34">
+        <v>3.35</v>
+      </c>
+      <c r="K34">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L34">
+        <v>1.6</v>
+      </c>
+      <c r="M34">
+        <v>2.76</v>
+      </c>
+      <c r="N34">
+        <v>1.57</v>
+      </c>
+      <c r="O34">
+        <v>2.64</v>
+      </c>
+      <c r="P34">
         <v>0</v>
       </c>
-      <c r="BM33">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG34">
+        <v>7005170</v>
+      </c>
+      <c r="BH34">
+        <v>13749040</v>
+      </c>
+      <c r="BI34">
+        <v>58805</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-05-01.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-05-01.xlsx
@@ -1617,7 +1617,7 @@
         <v>27</v>
       </c>
       <c r="Z2">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA2">
         <v>70</v>
@@ -1629,10 +1629,10 @@
         <v>12</v>
       </c>
       <c r="AD2">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE2">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AF2">
         <v>11.5</v>
@@ -1641,7 +1641,7 @@
         <v>17</v>
       </c>
       <c r="AH2">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AI2">
         <v>44</v>
@@ -1665,13 +1665,13 @@
         <v>22</v>
       </c>
       <c r="AP2">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AQ2">
         <v>60</v>
       </c>
       <c r="AR2">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AS2">
         <v>40</v>
@@ -1683,31 +1683,31 @@
         <v>32</v>
       </c>
       <c r="AV2">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AW2">
         <v>50</v>
       </c>
       <c r="AX2">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY2">
         <v>120</v>
       </c>
       <c r="AZ2">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BA2">
         <v>25</v>
       </c>
       <c r="BB2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC2">
         <v>40</v>
       </c>
       <c r="BD2">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1757,7 +1757,7 @@
         <v>1.71</v>
       </c>
       <c r="G3">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H3">
         <v>4.8</v>
@@ -1766,7 +1766,7 @@
         <v>4.9</v>
       </c>
       <c r="J3">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K3">
         <v>4.8</v>
@@ -1775,7 +1775,7 @@
         <v>3.35</v>
       </c>
       <c r="M3">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
         <v>1.38</v>
@@ -1784,7 +1784,7 @@
         <v>1.43</v>
       </c>
       <c r="P3">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q3">
         <v>1.49</v>
@@ -1793,7 +1793,7 @@
         <v>3.05</v>
       </c>
       <c r="S3">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T3">
         <v>32</v>
@@ -1802,7 +1802,7 @@
         <v>36</v>
       </c>
       <c r="V3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W3">
         <v>36</v>
@@ -1814,7 +1814,7 @@
         <v>50</v>
       </c>
       <c r="Z3">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA3">
         <v>110</v>
@@ -1847,7 +1847,7 @@
         <v>14.5</v>
       </c>
       <c r="AK3">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL3">
         <v>10</v>
@@ -1862,7 +1862,7 @@
         <v>15.5</v>
       </c>
       <c r="AP3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AQ3">
         <v>40</v>
@@ -1892,7 +1892,7 @@
         <v>46</v>
       </c>
       <c r="AZ3">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="BA3">
         <v>5.3</v>
@@ -1904,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="BD3">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="BE3">
         <v>980</v>
@@ -1960,7 +1960,7 @@
         <v>1.34</v>
       </c>
       <c r="I4">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1993,7 +1993,7 @@
         <v>2.06</v>
       </c>
       <c r="T4">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="U4">
         <v>980</v>
@@ -2002,13 +2002,13 @@
         <v>7.6</v>
       </c>
       <c r="W4">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="X4">
         <v>6.8</v>
       </c>
       <c r="Y4">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4">
         <v>9.199999999999999</v>
@@ -2017,13 +2017,13 @@
         <v>13.5</v>
       </c>
       <c r="AB4">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AC4">
         <v>980</v>
       </c>
       <c r="AD4">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AE4">
         <v>980</v>
@@ -2041,67 +2041,67 @@
         <v>18</v>
       </c>
       <c r="AJ4">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AK4">
         <v>120</v>
       </c>
       <c r="AL4">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AM4">
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AQ4">
         <v>46</v>
       </c>
       <c r="AR4">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AS4">
         <v>1000</v>
       </c>
       <c r="AT4">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AU4">
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="BA4">
         <v>1000</v>
       </c>
       <c r="BB4">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BC4">
         <v>6.2</v>
       </c>
       <c r="BD4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2151,34 +2151,34 @@
         <v>2.74</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H5">
         <v>2.76</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J5">
         <v>3.15</v>
       </c>
       <c r="K5">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
         <v>1.7</v>
       </c>
       <c r="M5">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N5">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O5">
         <v>2.44</v>
       </c>
       <c r="P5">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q5">
         <v>2.06</v>
@@ -2190,7 +2190,7 @@
         <v>2.08</v>
       </c>
       <c r="T5">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="U5">
         <v>11.5</v>
@@ -2202,13 +2202,13 @@
         <v>11</v>
       </c>
       <c r="X5">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y5">
         <v>19.5</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA5">
         <v>50</v>
@@ -2223,16 +2223,16 @@
         <v>6.6</v>
       </c>
       <c r="AE5">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AF5">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG5">
         <v>14.5</v>
       </c>
       <c r="AH5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AI5">
         <v>40</v>
@@ -2244,61 +2244,61 @@
         <v>19.5</v>
       </c>
       <c r="AL5">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AM5">
         <v>14.5</v>
       </c>
       <c r="AN5">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO5">
         <v>22</v>
       </c>
       <c r="AP5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AQ5">
         <v>60</v>
       </c>
       <c r="AR5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AS5">
         <v>50</v>
       </c>
       <c r="AT5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AU5">
         <v>40</v>
       </c>
       <c r="AV5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AW5">
         <v>60</v>
       </c>
       <c r="AX5">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY5">
         <v>150</v>
       </c>
       <c r="AZ5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BA5">
         <v>38</v>
       </c>
       <c r="BB5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BC5">
         <v>40</v>
       </c>
       <c r="BD5">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2348,34 +2348,34 @@
         <v>2.84</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
         <v>2.64</v>
       </c>
       <c r="I6">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="M6">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N6">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O6">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="P6">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q6">
         <v>2.06</v>
@@ -2387,7 +2387,7 @@
         <v>2.1</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>13.5</v>
@@ -2447,7 +2447,7 @@
         <v>16.5</v>
       </c>
       <c r="AN6">
-        <v>3.85</v>
+        <v>16.5</v>
       </c>
       <c r="AO6">
         <v>980</v>
@@ -2545,16 +2545,16 @@
         <v>2.98</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H7">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I7">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="K7">
         <v>3.55</v>
@@ -2563,10 +2563,10 @@
         <v>1.58</v>
       </c>
       <c r="M7">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="N7">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="O7">
         <v>2.74</v>
@@ -2581,7 +2581,7 @@
         <v>1.78</v>
       </c>
       <c r="S7">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T7">
         <v>8</v>
@@ -2608,13 +2608,13 @@
         <v>48</v>
       </c>
       <c r="AB7">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC7">
         <v>12.5</v>
       </c>
       <c r="AD7">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE7">
         <v>8.800000000000001</v>
@@ -2626,7 +2626,7 @@
         <v>15.5</v>
       </c>
       <c r="AH7">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AI7">
         <v>42</v>
@@ -2635,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="AK7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL7">
         <v>12.5</v>
@@ -2650,13 +2650,13 @@
         <v>980</v>
       </c>
       <c r="AP7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ7">
         <v>75</v>
       </c>
       <c r="AR7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AS7">
         <v>75</v>
@@ -2665,10 +2665,10 @@
         <v>4.1</v>
       </c>
       <c r="AU7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AV7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW7">
         <v>85</v>
@@ -2683,16 +2683,16 @@
         <v>4.1</v>
       </c>
       <c r="BA7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB7">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BC7">
         <v>42</v>
       </c>
       <c r="BD7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2742,7 +2742,7 @@
         <v>7.2</v>
       </c>
       <c r="G8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H8">
         <v>1.22</v>
@@ -2760,25 +2760,25 @@
         <v>2.18</v>
       </c>
       <c r="M8">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O8">
         <v>1.63</v>
       </c>
       <c r="P8">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="Q8">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="R8">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T8">
         <v>1.05</v>
@@ -2871,7 +2871,7 @@
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY8">
         <v>1000</v>
@@ -2936,25 +2936,25 @@
         <v>133</v>
       </c>
       <c r="F9">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G9">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I9">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J9">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9">
         <v>4.3</v>
       </c>
       <c r="L9">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="M9">
         <v>2.04</v>
@@ -2966,43 +2966,43 @@
         <v>2.22</v>
       </c>
       <c r="P9">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q9">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R9">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="S9">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U9">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V9">
         <v>7.6</v>
       </c>
       <c r="W9">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="X9">
         <v>10.5</v>
       </c>
       <c r="Y9">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB9">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC9">
         <v>14.5</v>
@@ -3011,13 +3011,13 @@
         <v>7</v>
       </c>
       <c r="AE9">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AF9">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AG9">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9">
         <v>19</v>
@@ -3029,13 +3029,13 @@
         <v>21</v>
       </c>
       <c r="AK9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL9">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AM9">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN9">
         <v>16.5</v>
@@ -3044,49 +3044,49 @@
         <v>23</v>
       </c>
       <c r="AP9">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ9">
         <v>46</v>
       </c>
       <c r="AR9">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AS9">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AT9">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AU9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AV9">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AW9">
         <v>65</v>
       </c>
       <c r="AX9">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AY9">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AZ9">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="BA9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB9">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="BC9">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BD9">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -3133,34 +3133,34 @@
         <v>134</v>
       </c>
       <c r="F10">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G10">
         <v>1.92</v>
       </c>
       <c r="H10">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J10">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K10">
         <v>4.1</v>
       </c>
       <c r="L10">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="M10">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="N10">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O10">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="P10">
         <v>1.81</v>
@@ -3178,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="U10">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V10">
         <v>14</v>
@@ -3187,28 +3187,28 @@
         <v>19.5</v>
       </c>
       <c r="X10">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>40</v>
       </c>
       <c r="Z10">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA10">
         <v>120</v>
       </c>
       <c r="AB10">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC10">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD10">
         <v>7.6</v>
       </c>
       <c r="AE10">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AF10">
         <v>15.5</v>
@@ -3217,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="AH10">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AI10">
         <v>70</v>
@@ -3241,7 +3241,7 @@
         <v>22</v>
       </c>
       <c r="AP10">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ10">
         <v>75</v>
@@ -3259,31 +3259,31 @@
         <v>21</v>
       </c>
       <c r="AV10">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AW10">
         <v>40</v>
       </c>
       <c r="AX10">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AY10">
         <v>120</v>
       </c>
       <c r="AZ10">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BA10">
         <v>13</v>
       </c>
       <c r="BB10">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BC10">
         <v>75</v>
       </c>
       <c r="BD10">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -3333,43 +3333,43 @@
         <v>1.67</v>
       </c>
       <c r="G11">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H11">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I11">
         <v>6.2</v>
       </c>
       <c r="J11">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L11">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M11">
         <v>2.5</v>
       </c>
       <c r="N11">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O11">
         <v>1.84</v>
       </c>
       <c r="P11">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q11">
         <v>1.85</v>
       </c>
       <c r="R11">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S11">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T11">
         <v>15</v>
@@ -3384,13 +3384,13 @@
         <v>28</v>
       </c>
       <c r="X11">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="Y11">
         <v>60</v>
       </c>
       <c r="Z11">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="AA11">
         <v>160</v>
@@ -3402,19 +3402,19 @@
         <v>13</v>
       </c>
       <c r="AD11">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE11">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AF11">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH11">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AI11">
         <v>80</v>
@@ -3429,7 +3429,7 @@
         <v>9</v>
       </c>
       <c r="AM11">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN11">
         <v>15</v>
@@ -3438,7 +3438,7 @@
         <v>22</v>
       </c>
       <c r="AP11">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AQ11">
         <v>80</v>
@@ -3456,31 +3456,31 @@
         <v>20</v>
       </c>
       <c r="AV11">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AW11">
         <v>38</v>
       </c>
       <c r="AX11">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AY11">
         <v>100</v>
       </c>
       <c r="AZ11">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="BA11">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="BB11">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="BC11">
         <v>75</v>
       </c>
       <c r="BD11">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3545,7 +3545,7 @@
         <v>10.5</v>
       </c>
       <c r="L12">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="M12">
         <v>3.3</v>
@@ -3563,13 +3563,13 @@
         <v>2.74</v>
       </c>
       <c r="R12">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S12">
         <v>1.7</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U12">
         <v>40</v>
@@ -3736,13 +3736,13 @@
         <v>36</v>
       </c>
       <c r="J13">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K13">
         <v>13.5</v>
       </c>
       <c r="L13">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="M13">
         <v>2.58</v>
@@ -3751,7 +3751,7 @@
         <v>1.63</v>
       </c>
       <c r="O13">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="P13">
         <v>2.3</v>
@@ -3802,7 +3802,7 @@
         <v>980</v>
       </c>
       <c r="AF13">
-        <v>1.31</v>
+        <v>1.68</v>
       </c>
       <c r="AG13">
         <v>980</v>
@@ -3850,7 +3850,7 @@
         <v>18.5</v>
       </c>
       <c r="AV13">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AW13">
         <v>1000</v>
@@ -3921,157 +3921,157 @@
         <v>138</v>
       </c>
       <c r="F14">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G14">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="H14">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="J14">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1.8</v>
+      </c>
+      <c r="M14">
+        <v>1.97</v>
+      </c>
+      <c r="N14">
+        <v>2.04</v>
+      </c>
+      <c r="O14">
+        <v>2.26</v>
+      </c>
+      <c r="P14">
+        <v>1.86</v>
+      </c>
+      <c r="Q14">
+        <v>1.98</v>
+      </c>
+      <c r="R14">
+        <v>2.02</v>
+      </c>
+      <c r="S14">
+        <v>2.16</v>
+      </c>
+      <c r="T14">
         <v>3.95</v>
       </c>
-      <c r="L14">
-        <v>1.5</v>
-      </c>
-      <c r="M14">
-        <v>1.86</v>
-      </c>
-      <c r="N14">
-        <v>2.16</v>
-      </c>
-      <c r="O14">
-        <v>2.98</v>
-      </c>
-      <c r="P14">
-        <v>1.12</v>
-      </c>
-      <c r="Q14">
-        <v>110</v>
-      </c>
-      <c r="R14">
-        <v>1.12</v>
-      </c>
-      <c r="S14">
-        <v>9.4</v>
-      </c>
-      <c r="T14">
-        <v>3.15</v>
-      </c>
       <c r="U14">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W14">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="X14">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="Y14">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z14">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AA14">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB14">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AC14">
         <v>980</v>
       </c>
       <c r="AD14">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="AE14">
         <v>980</v>
       </c>
       <c r="AF14">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="AG14">
         <v>980</v>
       </c>
       <c r="AH14">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AI14">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ14">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="AK14">
         <v>30</v>
       </c>
       <c r="AL14">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="AM14">
         <v>980</v>
       </c>
       <c r="AN14">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO14">
         <v>980</v>
       </c>
       <c r="AP14">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="AQ14">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR14">
-        <v>2.08</v>
+        <v>2.9</v>
       </c>
       <c r="AS14">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AT14">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AU14">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AV14">
+        <v>4.5</v>
+      </c>
+      <c r="AW14">
+        <v>70</v>
+      </c>
+      <c r="AX14">
+        <v>4.6</v>
+      </c>
+      <c r="AY14">
+        <v>140</v>
+      </c>
+      <c r="AZ14">
+        <v>2.86</v>
+      </c>
+      <c r="BA14">
+        <v>55</v>
+      </c>
+      <c r="BB14">
+        <v>2.68</v>
+      </c>
+      <c r="BC14">
+        <v>27</v>
+      </c>
+      <c r="BD14">
         <v>3</v>
-      </c>
-      <c r="AW14">
-        <v>1000</v>
-      </c>
-      <c r="AX14">
-        <v>3</v>
-      </c>
-      <c r="AY14">
-        <v>1000</v>
-      </c>
-      <c r="AZ14">
-        <v>1.7</v>
-      </c>
-      <c r="BA14">
-        <v>1000</v>
-      </c>
-      <c r="BB14">
-        <v>2.66</v>
-      </c>
-      <c r="BC14">
-        <v>34</v>
-      </c>
-      <c r="BD14">
-        <v>1.7</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -4118,7 +4118,7 @@
         <v>139</v>
       </c>
       <c r="F15">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G15">
         <v>1.65</v>
@@ -4127,7 +4127,7 @@
         <v>6.8</v>
       </c>
       <c r="I15">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J15">
         <v>3.9</v>
@@ -4136,7 +4136,7 @@
         <v>4.3</v>
       </c>
       <c r="L15">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="M15">
         <v>1.92</v>
@@ -4145,13 +4145,13 @@
         <v>2.08</v>
       </c>
       <c r="O15">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="P15">
         <v>2.18</v>
       </c>
       <c r="Q15">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R15">
         <v>1.74</v>
@@ -4172,16 +4172,16 @@
         <v>22</v>
       </c>
       <c r="X15">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y15">
         <v>65</v>
       </c>
       <c r="Z15">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA15">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB15">
         <v>6.2</v>
@@ -4202,7 +4202,7 @@
         <v>32</v>
       </c>
       <c r="AH15">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI15">
         <v>140</v>
@@ -4223,19 +4223,19 @@
         <v>19.5</v>
       </c>
       <c r="AO15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP15">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ15">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AR15">
         <v>13</v>
       </c>
       <c r="AS15">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AT15">
         <v>17</v>
@@ -4244,31 +4244,31 @@
         <v>21</v>
       </c>
       <c r="AV15">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW15">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX15">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY15">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AZ15">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BA15">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BB15">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BC15">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="BD15">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -4333,16 +4333,16 @@
         <v>3.75</v>
       </c>
       <c r="L16">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M16">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
         <v>1.71</v>
       </c>
       <c r="O16">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P16">
         <v>1.66</v>
@@ -4375,7 +4375,7 @@
         <v>19</v>
       </c>
       <c r="Z16">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AA16">
         <v>36</v>
@@ -4387,10 +4387,10 @@
         <v>18.5</v>
       </c>
       <c r="AD16">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AE16">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF16">
         <v>9.199999999999999</v>
@@ -4423,49 +4423,49 @@
         <v>21</v>
       </c>
       <c r="AP16">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AQ16">
         <v>40</v>
       </c>
       <c r="AR16">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AS16">
         <v>70</v>
       </c>
       <c r="AT16">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AU16">
         <v>42</v>
       </c>
       <c r="AV16">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AW16">
         <v>50</v>
       </c>
       <c r="AX16">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AY16">
         <v>95</v>
       </c>
       <c r="AZ16">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BA16">
         <v>34</v>
       </c>
       <c r="BB16">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="BC16">
         <v>17.5</v>
       </c>
       <c r="BD16">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BE16">
         <v>700</v>
@@ -4521,7 +4521,7 @@
         <v>3.25</v>
       </c>
       <c r="I17">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J17">
         <v>3.5</v>
@@ -4530,28 +4530,28 @@
         <v>3.75</v>
       </c>
       <c r="L17">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="M17">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="N17">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="O17">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="P17">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q17">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R17">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S17">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T17">
         <v>12.5</v>
@@ -4566,13 +4566,13 @@
         <v>17</v>
       </c>
       <c r="X17">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y17">
         <v>29</v>
       </c>
       <c r="Z17">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA17">
         <v>70</v>
@@ -4596,10 +4596,10 @@
         <v>17.5</v>
       </c>
       <c r="AH17">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AI17">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ17">
         <v>13</v>
@@ -4620,13 +4620,13 @@
         <v>22</v>
       </c>
       <c r="AP17">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AQ17">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR17">
-        <v>4.1</v>
+        <v>24</v>
       </c>
       <c r="AS17">
         <v>38</v>
@@ -4638,34 +4638,34 @@
         <v>29</v>
       </c>
       <c r="AV17">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AW17">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX17">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AY17">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ17">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BA17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB17">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC17">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BD17">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BE17">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="BF17" t="s">
         <v>174</v>
@@ -4718,7 +4718,7 @@
         <v>3.35</v>
       </c>
       <c r="I18">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -4730,10 +4730,10 @@
         <v>1.49</v>
       </c>
       <c r="M18">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N18">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O18">
         <v>3.05</v>
@@ -4757,19 +4757,19 @@
         <v>980</v>
       </c>
       <c r="V18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W18">
         <v>11.5</v>
       </c>
       <c r="X18">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y18">
         <v>27</v>
       </c>
       <c r="Z18">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA18">
         <v>90</v>
@@ -4778,22 +4778,22 @@
         <v>6.4</v>
       </c>
       <c r="AC18">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD18">
         <v>6</v>
       </c>
       <c r="AE18">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AF18">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="AG18">
         <v>980</v>
       </c>
       <c r="AH18">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI18">
         <v>70</v>
@@ -4811,55 +4811,55 @@
         <v>15.5</v>
       </c>
       <c r="AN18">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO18">
         <v>980</v>
       </c>
       <c r="AP18">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="AQ18">
         <v>110</v>
       </c>
       <c r="AR18">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AS18">
         <v>46</v>
       </c>
       <c r="AT18">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AU18">
         <v>46</v>
       </c>
       <c r="AV18">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="AW18">
         <v>85</v>
       </c>
       <c r="AX18">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="AY18">
         <v>1000</v>
       </c>
       <c r="AZ18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BA18">
         <v>48</v>
       </c>
       <c r="BB18">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="BC18">
         <v>95</v>
       </c>
       <c r="BD18">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="BE18">
         <v>1000</v>
@@ -4930,13 +4930,13 @@
         <v>1.72</v>
       </c>
       <c r="N19">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
         <v>2.6</v>
       </c>
       <c r="P19">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q19">
         <v>2.18</v>
@@ -4945,7 +4945,7 @@
         <v>1.84</v>
       </c>
       <c r="S19">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
         <v>8.6</v>
@@ -5103,10 +5103,10 @@
         <v>144</v>
       </c>
       <c r="F20">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G20">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H20">
         <v>2.92</v>
@@ -5115,7 +5115,7 @@
         <v>3.65</v>
       </c>
       <c r="J20">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K20">
         <v>330</v>
@@ -5151,19 +5151,19 @@
         <v>1000</v>
       </c>
       <c r="V20">
-        <v>1.18</v>
+        <v>2.52</v>
       </c>
       <c r="W20">
         <v>16</v>
       </c>
       <c r="X20">
-        <v>1.18</v>
+        <v>2.68</v>
       </c>
       <c r="Y20">
         <v>1000</v>
       </c>
       <c r="Z20">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AA20">
         <v>1000</v>
@@ -5181,13 +5181,13 @@
         <v>9.4</v>
       </c>
       <c r="AF20">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AG20">
         <v>1000</v>
       </c>
       <c r="AH20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AI20">
         <v>1000</v>
@@ -5199,7 +5199,7 @@
         <v>1000</v>
       </c>
       <c r="AL20">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AM20">
         <v>12.5</v>
@@ -5223,19 +5223,19 @@
         <v>1000</v>
       </c>
       <c r="AT20">
-        <v>1.18</v>
+        <v>3.95</v>
       </c>
       <c r="AU20">
         <v>1000</v>
       </c>
       <c r="AV20">
-        <v>1.18</v>
+        <v>5.7</v>
       </c>
       <c r="AW20">
         <v>1000</v>
       </c>
       <c r="AX20">
-        <v>1.08</v>
+        <v>16</v>
       </c>
       <c r="AY20">
         <v>1000</v>
@@ -5300,10 +5300,10 @@
         <v>145</v>
       </c>
       <c r="F21">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G21">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -5312,10 +5312,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J21">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K21">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>1.72</v>
@@ -5342,115 +5342,115 @@
         <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="U21">
         <v>980</v>
       </c>
       <c r="V21">
-        <v>2.86</v>
+        <v>1.56</v>
       </c>
       <c r="W21">
         <v>980</v>
       </c>
       <c r="X21">
-        <v>2.62</v>
+        <v>1.15</v>
       </c>
       <c r="Y21">
         <v>1000</v>
       </c>
       <c r="Z21">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="AA21">
         <v>1000</v>
       </c>
       <c r="AB21">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AC21">
         <v>980</v>
       </c>
       <c r="AD21">
-        <v>1.42</v>
+        <v>4.3</v>
       </c>
       <c r="AE21">
         <v>980</v>
       </c>
       <c r="AF21">
-        <v>1.62</v>
+        <v>2.74</v>
       </c>
       <c r="AG21">
         <v>980</v>
       </c>
       <c r="AH21">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI21">
         <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>1.64</v>
+        <v>4.1</v>
       </c>
       <c r="AK21">
         <v>9.4</v>
       </c>
       <c r="AL21">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AM21">
         <v>980</v>
       </c>
       <c r="AN21">
-        <v>1.62</v>
+        <v>2.74</v>
       </c>
       <c r="AO21">
         <v>980</v>
       </c>
       <c r="AP21">
-        <v>9.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="AS21">
         <v>17</v>
       </c>
       <c r="AT21">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AU21">
         <v>21</v>
       </c>
       <c r="AV21">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AW21">
         <v>1000</v>
       </c>
       <c r="AX21">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AY21">
         <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="BA21">
         <v>12.5</v>
       </c>
       <c r="BB21">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="BC21">
         <v>1000</v>
       </c>
       <c r="BD21">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -5500,31 +5500,31 @@
         <v>3.1</v>
       </c>
       <c r="G22">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H22">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I22">
+        <v>2.98</v>
+      </c>
+      <c r="J22">
         <v>2.94</v>
-      </c>
-      <c r="J22">
-        <v>2.92</v>
       </c>
       <c r="K22">
         <v>2.96</v>
       </c>
       <c r="L22">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M22">
         <v>1.68</v>
       </c>
       <c r="N22">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O22">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="P22">
         <v>2.04</v>
@@ -5533,7 +5533,7 @@
         <v>2.2</v>
       </c>
       <c r="R22">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S22">
         <v>1.95</v>
@@ -5554,19 +5554,19 @@
         <v>14.5</v>
       </c>
       <c r="Y22">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z22">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB22">
         <v>8.6</v>
       </c>
       <c r="AC22">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD22">
         <v>6.6</v>
@@ -5605,19 +5605,19 @@
         <v>28</v>
       </c>
       <c r="AP22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AQ22">
         <v>100</v>
       </c>
       <c r="AR22">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AS22">
         <v>55</v>
       </c>
       <c r="AT22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AU22">
         <v>46</v>
@@ -5629,7 +5629,7 @@
         <v>95</v>
       </c>
       <c r="AX22">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY22">
         <v>220</v>
@@ -5638,7 +5638,7 @@
         <v>12.5</v>
       </c>
       <c r="BA22">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB22">
         <v>12</v>
@@ -5647,7 +5647,7 @@
         <v>85</v>
       </c>
       <c r="BD22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5697,7 +5697,7 @@
         <v>3.45</v>
       </c>
       <c r="G23">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H23">
         <v>2.14</v>
@@ -5706,7 +5706,7 @@
         <v>2.44</v>
       </c>
       <c r="J23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K23">
         <v>3.6</v>
@@ -5742,10 +5742,10 @@
         <v>14</v>
       </c>
       <c r="V23">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="W23">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="X23">
         <v>11</v>
@@ -5754,7 +5754,7 @@
         <v>15.5</v>
       </c>
       <c r="Z23">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AA23">
         <v>34</v>
@@ -5766,10 +5766,10 @@
         <v>15.5</v>
       </c>
       <c r="AD23">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE23">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF23">
         <v>9.199999999999999</v>
@@ -5802,49 +5802,49 @@
         <v>980</v>
       </c>
       <c r="AP23">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AQ23">
         <v>55</v>
       </c>
       <c r="AR23">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AS23">
         <v>90</v>
       </c>
       <c r="AT23">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AU23">
         <v>60</v>
       </c>
       <c r="AV23">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AW23">
         <v>75</v>
       </c>
       <c r="AX23">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AY23">
         <v>150</v>
       </c>
       <c r="AZ23">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BA23">
         <v>65</v>
       </c>
       <c r="BB23">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BC23">
         <v>24</v>
       </c>
       <c r="BD23">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5891,34 +5891,34 @@
         <v>148</v>
       </c>
       <c r="F24">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G24">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H24">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I24">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J24">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K24">
         <v>3.5</v>
       </c>
       <c r="L24">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M24">
         <v>1.87</v>
       </c>
       <c r="N24">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O24">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="P24">
         <v>1.9</v>
@@ -5939,22 +5939,22 @@
         <v>12</v>
       </c>
       <c r="V24">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="W24">
         <v>11.5</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="Y24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA24">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB24">
         <v>8.199999999999999</v>
@@ -5963,7 +5963,7 @@
         <v>11</v>
       </c>
       <c r="AD24">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AE24">
         <v>8.199999999999999</v>
@@ -5972,10 +5972,10 @@
         <v>10.5</v>
       </c>
       <c r="AG24">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH24">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AI24">
         <v>40</v>
@@ -5984,16 +5984,16 @@
         <v>14</v>
       </c>
       <c r="AK24">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL24">
         <v>10.5</v>
       </c>
       <c r="AM24">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN24">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO24">
         <v>980</v>
@@ -6005,13 +6005,13 @@
         <v>60</v>
       </c>
       <c r="AR24">
+        <v>6</v>
+      </c>
+      <c r="AS24">
+        <v>48</v>
+      </c>
+      <c r="AT24">
         <v>5.8</v>
-      </c>
-      <c r="AS24">
-        <v>46</v>
-      </c>
-      <c r="AT24">
-        <v>5.7</v>
       </c>
       <c r="AU24">
         <v>38</v>
@@ -6029,19 +6029,19 @@
         <v>140</v>
       </c>
       <c r="AZ24">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BA24">
         <v>36</v>
       </c>
       <c r="BB24">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BC24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD24">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -6091,76 +6091,76 @@
         <v>5.1</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H25">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J25">
         <v>3.4</v>
       </c>
       <c r="K25">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L25">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M25">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="N25">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="P25">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q25">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R25">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S25">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T25">
-        <v>3.35</v>
+        <v>9.4</v>
       </c>
       <c r="U25">
         <v>980</v>
       </c>
       <c r="V25">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="W25">
         <v>980</v>
       </c>
       <c r="X25">
-        <v>3.25</v>
+        <v>7.2</v>
       </c>
       <c r="Y25">
         <v>11</v>
       </c>
       <c r="Z25">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA25">
         <v>21</v>
       </c>
       <c r="AB25">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AC25">
         <v>980</v>
       </c>
       <c r="AD25">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AE25">
         <v>980</v>
@@ -6172,19 +6172,19 @@
         <v>980</v>
       </c>
       <c r="AH25">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="AI25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ25">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AK25">
         <v>60</v>
       </c>
       <c r="AL25">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AM25">
         <v>980</v>
@@ -6208,13 +6208,13 @@
         <v>1000</v>
       </c>
       <c r="AT25">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW25">
         <v>1000</v>
@@ -6232,10 +6232,10 @@
         <v>1000</v>
       </c>
       <c r="BB25">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="BC25">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD25">
         <v>4.3</v>
@@ -6285,10 +6285,10 @@
         <v>150</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H26">
         <v>1.56</v>
@@ -6300,10 +6300,10 @@
         <v>3.8</v>
       </c>
       <c r="K26">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L26">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="M26">
         <v>1.97</v>
@@ -6312,7 +6312,7 @@
         <v>2.04</v>
       </c>
       <c r="O26">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="P26">
         <v>2.02</v>
@@ -6330,37 +6330,37 @@
         <v>11</v>
       </c>
       <c r="U26">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V26">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="W26">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X26">
         <v>7.4</v>
       </c>
       <c r="Y26">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA26">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB26">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC26">
         <v>980</v>
       </c>
       <c r="AD26">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE26">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AF26">
         <v>8.4</v>
@@ -6375,13 +6375,13 @@
         <v>21</v>
       </c>
       <c r="AJ26">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AK26">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL26">
-        <v>5.8</v>
+        <v>22</v>
       </c>
       <c r="AM26">
         <v>980</v>
@@ -6393,49 +6393,49 @@
         <v>980</v>
       </c>
       <c r="AP26">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AQ26">
         <v>50</v>
       </c>
       <c r="AR26">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="AS26">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AT26">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="AU26">
         <v>130</v>
       </c>
       <c r="AV26">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="AW26">
         <v>130</v>
       </c>
       <c r="AX26">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="AY26">
         <v>200</v>
       </c>
       <c r="AZ26">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="BA26">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="BB26">
-        <v>2.96</v>
+        <v>4.2</v>
       </c>
       <c r="BC26">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BD26">
-        <v>2.22</v>
+        <v>4.3</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6503,13 +6503,13 @@
         <v>1.9</v>
       </c>
       <c r="M27">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="N27">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="O27">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P27">
         <v>1.85</v>
@@ -6530,10 +6530,10 @@
         <v>15.5</v>
       </c>
       <c r="V27">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="W27">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X27">
         <v>9.6</v>
@@ -6596,43 +6596,43 @@
         <v>42</v>
       </c>
       <c r="AR27">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS27">
         <v>120</v>
       </c>
       <c r="AT27">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AU27">
         <v>70</v>
       </c>
       <c r="AV27">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW27">
         <v>75</v>
       </c>
       <c r="AX27">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY27">
         <v>130</v>
       </c>
       <c r="AZ27">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BA27">
         <v>75</v>
       </c>
       <c r="BB27">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BC27">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BD27">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6688,7 +6688,7 @@
         <v>2.04</v>
       </c>
       <c r="I28">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J28">
         <v>2.72</v>
@@ -6706,7 +6706,7 @@
         <v>2.18</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
         <v>1.12</v>
@@ -6721,7 +6721,7 @@
         <v>9.4</v>
       </c>
       <c r="T28">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="U28">
         <v>980</v>
@@ -6733,103 +6733,103 @@
         <v>980</v>
       </c>
       <c r="X28">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Y28">
         <v>14.5</v>
       </c>
       <c r="Z28">
-        <v>3.75</v>
+        <v>2.32</v>
       </c>
       <c r="AA28">
         <v>1000</v>
       </c>
       <c r="AB28">
+        <v>2.12</v>
+      </c>
+      <c r="AC28">
+        <v>980</v>
+      </c>
+      <c r="AD28">
+        <v>2.96</v>
+      </c>
+      <c r="AE28">
+        <v>980</v>
+      </c>
+      <c r="AF28">
         <v>2.1</v>
       </c>
-      <c r="AC28">
-        <v>980</v>
-      </c>
-      <c r="AD28">
-        <v>2.94</v>
-      </c>
-      <c r="AE28">
-        <v>980</v>
-      </c>
-      <c r="AF28">
-        <v>2.22</v>
-      </c>
       <c r="AG28">
         <v>980</v>
       </c>
       <c r="AH28">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="AI28">
         <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="AK28">
         <v>1000</v>
       </c>
       <c r="AL28">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AM28">
         <v>980</v>
       </c>
       <c r="AN28">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AO28">
         <v>980</v>
       </c>
       <c r="AP28">
-        <v>1.51</v>
+        <v>2.32</v>
       </c>
       <c r="AQ28">
         <v>1000</v>
       </c>
       <c r="AR28">
-        <v>4</v>
+        <v>1.82</v>
       </c>
       <c r="AS28">
         <v>1000</v>
       </c>
       <c r="AT28">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="AU28">
         <v>1000</v>
       </c>
       <c r="AV28">
-        <v>1.51</v>
+        <v>2.32</v>
       </c>
       <c r="AW28">
         <v>1000</v>
       </c>
       <c r="AX28">
-        <v>1.51</v>
+        <v>2.32</v>
       </c>
       <c r="AY28">
         <v>1000</v>
       </c>
       <c r="AZ28">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="BA28">
         <v>1000</v>
       </c>
       <c r="BB28">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="BC28">
         <v>1000</v>
       </c>
       <c r="BD28">
-        <v>4.4</v>
+        <v>1.82</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6888,7 +6888,7 @@
         <v>980</v>
       </c>
       <c r="J29">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K29">
         <v>980</v>
@@ -6924,91 +6924,91 @@
         <v>980</v>
       </c>
       <c r="V29">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="W29">
         <v>980</v>
       </c>
       <c r="X29">
-        <v>2.76</v>
+        <v>1.05</v>
       </c>
       <c r="Y29">
         <v>1000</v>
       </c>
       <c r="Z29">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
         <v>1000</v>
       </c>
       <c r="AB29">
-        <v>2.94</v>
+        <v>1.05</v>
       </c>
       <c r="AC29">
         <v>980</v>
       </c>
       <c r="AD29">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="AE29">
         <v>980</v>
       </c>
       <c r="AF29">
-        <v>6</v>
+        <v>1.05</v>
       </c>
       <c r="AG29">
         <v>980</v>
       </c>
       <c r="AH29">
-        <v>8.199999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AI29">
         <v>1000</v>
       </c>
       <c r="AJ29">
-        <v>3.9</v>
+        <v>1.05</v>
       </c>
       <c r="AK29">
         <v>1000</v>
       </c>
       <c r="AL29">
-        <v>3.05</v>
+        <v>1.05</v>
       </c>
       <c r="AM29">
         <v>980</v>
       </c>
       <c r="AN29">
-        <v>8.4</v>
+        <v>1.05</v>
       </c>
       <c r="AO29">
         <v>980</v>
       </c>
       <c r="AP29">
-        <v>6.8</v>
+        <v>1.05</v>
       </c>
       <c r="AQ29">
         <v>1000</v>
       </c>
       <c r="AR29">
-        <v>3.05</v>
+        <v>1.05</v>
       </c>
       <c r="AS29">
         <v>1000</v>
       </c>
       <c r="AT29">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="AU29">
         <v>1000</v>
       </c>
       <c r="AV29">
-        <v>13</v>
+        <v>1.05</v>
       </c>
       <c r="AW29">
         <v>1000</v>
       </c>
       <c r="AX29">
-        <v>7.6</v>
+        <v>1.05</v>
       </c>
       <c r="AY29">
         <v>1000</v>
@@ -7073,7 +7073,7 @@
         <v>154</v>
       </c>
       <c r="F30">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="G30">
         <v>2.74</v>
@@ -7091,79 +7091,79 @@
         <v>4.7</v>
       </c>
       <c r="L30">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="M30">
+        <v>2.84</v>
+      </c>
+      <c r="N30">
+        <v>1.54</v>
+      </c>
+      <c r="O30">
+        <v>1.74</v>
+      </c>
+      <c r="P30">
+        <v>1.54</v>
+      </c>
+      <c r="Q30">
+        <v>1.64</v>
+      </c>
+      <c r="R30">
+        <v>2.58</v>
+      </c>
+      <c r="S30">
         <v>2.82</v>
       </c>
-      <c r="N30">
-        <v>1.55</v>
-      </c>
-      <c r="O30">
-        <v>1.73</v>
-      </c>
-      <c r="P30">
-        <v>1.52</v>
-      </c>
-      <c r="Q30">
-        <v>1.66</v>
-      </c>
-      <c r="R30">
-        <v>2.52</v>
-      </c>
-      <c r="S30">
-        <v>2.94</v>
-      </c>
       <c r="T30">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="U30">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="V30">
-        <v>1.58</v>
+        <v>3.45</v>
       </c>
       <c r="W30">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="X30">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="Y30">
         <v>1000</v>
       </c>
       <c r="Z30">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AA30">
         <v>1000</v>
       </c>
       <c r="AB30">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC30">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AD30">
         <v>8</v>
       </c>
       <c r="AE30">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AF30">
         <v>4.7</v>
       </c>
       <c r="AG30">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH30">
-        <v>1.38</v>
+        <v>4.2</v>
       </c>
       <c r="AI30">
         <v>1000</v>
       </c>
       <c r="AJ30">
-        <v>1.47</v>
+        <v>1.93</v>
       </c>
       <c r="AK30">
         <v>22</v>
@@ -7172,58 +7172,58 @@
         <v>4.6</v>
       </c>
       <c r="AM30">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AN30">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO30">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AP30">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AQ30">
         <v>1000</v>
       </c>
       <c r="AR30">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AS30">
         <v>1000</v>
       </c>
       <c r="AT30">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AU30">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AV30">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AW30">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AX30">
-        <v>1.37</v>
+        <v>15</v>
       </c>
       <c r="AY30">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AZ30">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="BA30">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BB30">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BC30">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BD30">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7270,67 +7270,67 @@
         <v>155</v>
       </c>
       <c r="F31">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G31">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H31">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I31">
         <v>7.4</v>
       </c>
       <c r="J31">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K31">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L31">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M31">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="N31">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O31">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="P31">
         <v>1.86</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R31">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
         <v>2.16</v>
       </c>
       <c r="T31">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="U31">
         <v>980</v>
       </c>
       <c r="V31">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="W31">
         <v>980</v>
       </c>
       <c r="X31">
-        <v>1.31</v>
+        <v>2.9</v>
       </c>
       <c r="Y31">
         <v>1000</v>
       </c>
       <c r="Z31">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AA31">
         <v>1000</v>
@@ -7342,85 +7342,85 @@
         <v>980</v>
       </c>
       <c r="AD31">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="AE31">
         <v>980</v>
       </c>
       <c r="AF31">
-        <v>3.9</v>
+        <v>1.65</v>
       </c>
       <c r="AG31">
         <v>980</v>
       </c>
       <c r="AH31">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AI31">
         <v>1000</v>
       </c>
       <c r="AJ31">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AK31">
         <v>12</v>
       </c>
       <c r="AL31">
+        <v>2.06</v>
+      </c>
+      <c r="AM31">
+        <v>980</v>
+      </c>
+      <c r="AN31">
+        <v>1.65</v>
+      </c>
+      <c r="AO31">
+        <v>980</v>
+      </c>
+      <c r="AP31">
+        <v>1.46</v>
+      </c>
+      <c r="AQ31">
+        <v>1000</v>
+      </c>
+      <c r="AR31">
         <v>2.2</v>
-      </c>
-      <c r="AM31">
-        <v>980</v>
-      </c>
-      <c r="AN31">
-        <v>1.93</v>
-      </c>
-      <c r="AO31">
-        <v>980</v>
-      </c>
-      <c r="AP31">
-        <v>8</v>
-      </c>
-      <c r="AQ31">
-        <v>1000</v>
-      </c>
-      <c r="AR31">
-        <v>2.32</v>
       </c>
       <c r="AS31">
         <v>21</v>
       </c>
       <c r="AT31">
-        <v>1.93</v>
+        <v>3.55</v>
       </c>
       <c r="AU31">
         <v>23</v>
       </c>
       <c r="AV31">
-        <v>6.2</v>
+        <v>2.46</v>
       </c>
       <c r="AW31">
         <v>1000</v>
       </c>
       <c r="AX31">
-        <v>19.5</v>
+        <v>1.94</v>
       </c>
       <c r="AY31">
         <v>1000</v>
       </c>
       <c r="AZ31">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="BA31">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BB31">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BC31">
         <v>1000</v>
       </c>
       <c r="BD31">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7467,28 +7467,28 @@
         <v>156</v>
       </c>
       <c r="F32">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="G32">
         <v>1.74</v>
       </c>
       <c r="H32">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I32">
         <v>6.4</v>
       </c>
       <c r="J32">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K32">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="L32">
         <v>2.36</v>
       </c>
       <c r="M32">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="N32">
         <v>1.54</v>
@@ -7497,58 +7497,58 @@
         <v>1.74</v>
       </c>
       <c r="P32">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q32">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R32">
         <v>2.16</v>
       </c>
       <c r="S32">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="T32">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="U32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V32">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="W32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X32">
-        <v>2.62</v>
+        <v>1.28</v>
       </c>
       <c r="Y32">
         <v>1000</v>
       </c>
       <c r="Z32">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="AA32">
         <v>1000</v>
       </c>
       <c r="AB32">
-        <v>2.36</v>
+        <v>9.4</v>
       </c>
       <c r="AC32">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD32">
-        <v>1.31</v>
+        <v>9.4</v>
       </c>
       <c r="AE32">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AF32">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="AG32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH32">
         <v>5.9</v>
@@ -7557,7 +7557,7 @@
         <v>1000</v>
       </c>
       <c r="AJ32">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="AK32">
         <v>13</v>
@@ -7566,22 +7566,22 @@
         <v>4.3</v>
       </c>
       <c r="AM32">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="AO32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP32">
-        <v>1.47</v>
+        <v>6</v>
       </c>
       <c r="AQ32">
         <v>1000</v>
       </c>
       <c r="AR32">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="AS32">
         <v>1000</v>
@@ -7593,31 +7593,31 @@
         <v>1000</v>
       </c>
       <c r="AV32">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="AW32">
         <v>1000</v>
       </c>
       <c r="AX32">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY32">
         <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="BA32">
         <v>7.6</v>
       </c>
       <c r="BB32">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="BC32">
         <v>1000</v>
       </c>
       <c r="BD32">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7664,16 +7664,16 @@
         <v>157</v>
       </c>
       <c r="F33">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G33">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H33">
+        <v>2.5</v>
+      </c>
+      <c r="I33">
         <v>2.52</v>
-      </c>
-      <c r="I33">
-        <v>2.54</v>
       </c>
       <c r="J33">
         <v>3.85</v>
@@ -7682,16 +7682,16 @@
         <v>3.9</v>
       </c>
       <c r="L33">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="M33">
         <v>2.74</v>
       </c>
       <c r="N33">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O33">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P33">
         <v>1.52</v>
@@ -7700,7 +7700,7 @@
         <v>1.53</v>
       </c>
       <c r="R33">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="S33">
         <v>2.94</v>
@@ -7709,13 +7709,13 @@
         <v>21</v>
       </c>
       <c r="U33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V33">
         <v>15.5</v>
       </c>
       <c r="W33">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X33">
         <v>18.5</v>
@@ -7739,7 +7739,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AE33">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AF33">
         <v>11</v>
@@ -7784,7 +7784,7 @@
         <v>44</v>
       </c>
       <c r="AT33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU33">
         <v>26</v>
@@ -7796,16 +7796,16 @@
         <v>30</v>
       </c>
       <c r="AX33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AY33">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AZ33">
         <v>14.5</v>
       </c>
       <c r="BA33">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BB33">
         <v>11.5</v>
@@ -7814,7 +7814,7 @@
         <v>12.5</v>
       </c>
       <c r="BD33">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="BE33">
         <v>290</v>
@@ -7861,34 +7861,34 @@
         <v>158</v>
       </c>
       <c r="F34">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="G34">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="H34">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="I34">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="J34">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="K34">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="L34">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="M34">
-        <v>2.76</v>
+        <v>990</v>
       </c>
       <c r="N34">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="O34">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="P34">
         <v>0</v>
